--- a/images/wyniki_ankiety.xlsx
+++ b/images/wyniki_ankiety.xlsx
@@ -1,41 +1,116 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakubradzik/Desktop/ImageLoadingMasters/images/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A6A75C-B286-4148-8F2D-BA679B6DAABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Wyniki ankiety" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="28">
+  <si>
+    <t>Plik</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Feedback</t>
+  </si>
+  <si>
+    <t>FormatA</t>
+  </si>
+  <si>
+    <t>FormatB</t>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Width</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>UserAgent</t>
+  </si>
+  <si>
+    <t>survey-2025-03-23T16-18-21-921Z-RADZIK.json</t>
+  </si>
+  <si>
+    <t>Obraz B</t>
+  </si>
+  <si>
+    <t>avif</t>
+  </si>
+  <si>
+    <t>webp</t>
+  </si>
+  <si>
+    <t>Mozilla/5.0 (iPhone; CPU iPhone OS 18_2 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/18.2 Mobile/15E148 Safari/604.1</t>
+  </si>
+  <si>
+    <t>Oba jakościowo dobre</t>
+  </si>
+  <si>
+    <t>Oba jakościowe złe</t>
+  </si>
+  <si>
+    <t>jpg</t>
+  </si>
+  <si>
+    <t>Obraz A</t>
+  </si>
+  <si>
+    <t>survey-2025-03-23T16-24-49-623Z_OLA.json</t>
+  </si>
+  <si>
+    <t>Mozilla/5.0 (iPhone; CPU iPhone OS 18_1 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/18.1 Mobile/22B83 Safari/604.1</t>
+  </si>
+  <si>
+    <t>survey-2025-03-23T16-44-52-358Z_PATALAS.json</t>
+  </si>
+  <si>
+    <t>Mozilla/5.0 (Linux; Android 16; K) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/134.0.6998.40 Mobile Safari/537.36</t>
+  </si>
+  <si>
+    <t>survey-2025-03-23T17-00-03-516Z_mama.json</t>
+  </si>
+  <si>
+    <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/129.0.0.0 Safari/537.36</t>
+  </si>
+  <si>
+    <t>survey-2025-03-23T17-03-57-020Z_zibi.json</t>
+  </si>
+  <si>
+    <t>survey-2025-03-24T14-51-24-510Z_extension_jakub.json</t>
+  </si>
+  <si>
+    <t>png</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -65,13 +140,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,59 +479,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J136"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J145"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="A137" sqref="A137:S145"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="68.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Plik</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Index</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Feedback</v>
-      </c>
-      <c r="D1" t="str">
-        <v>FormatA</v>
-      </c>
-      <c r="E1" t="str">
-        <v>FormatB</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Quality</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Image</v>
-      </c>
-      <c r="H1" t="str">
-        <v>Width</v>
-      </c>
-      <c r="I1" t="str">
-        <v>Height</v>
-      </c>
-      <c r="J1" t="str">
-        <v>UserAgent</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>survey-2025-03-23T16-18-21-921Z-RADZIK.json</v>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" t="str">
-        <v>Obraz B</v>
-      </c>
-      <c r="D2" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E2" t="str">
-        <v>webp</v>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -462,25 +551,25 @@
       <c r="I2">
         <v>659</v>
       </c>
-      <c r="J2" t="str">
-        <v>Mozilla/5.0 (iPhone; CPU iPhone OS 18_2 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/18.2 Mobile/15E148 Safari/604.1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>survey-2025-03-23T16-18-21-921Z-RADZIK.json</v>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="str">
-        <v>Obraz B</v>
-      </c>
-      <c r="D3" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E3" t="str">
-        <v>webp</v>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -494,25 +583,25 @@
       <c r="I3">
         <v>659</v>
       </c>
-      <c r="J3" t="str">
-        <v>Mozilla/5.0 (iPhone; CPU iPhone OS 18_2 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/18.2 Mobile/15E148 Safari/604.1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>survey-2025-03-23T16-18-21-921Z-RADZIK.json</v>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" t="str">
-        <v>Obraz B</v>
-      </c>
-      <c r="D4" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E4" t="str">
-        <v>webp</v>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -526,25 +615,25 @@
       <c r="I4">
         <v>659</v>
       </c>
-      <c r="J4" t="str">
-        <v>Mozilla/5.0 (iPhone; CPU iPhone OS 18_2 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/18.2 Mobile/15E148 Safari/604.1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>survey-2025-03-23T16-18-21-921Z-RADZIK.json</v>
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" t="str">
-        <v>Obraz B</v>
-      </c>
-      <c r="D5" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E5" t="str">
-        <v>webp</v>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
       </c>
       <c r="F5">
         <v>40</v>
@@ -558,25 +647,25 @@
       <c r="I5">
         <v>659</v>
       </c>
-      <c r="J5" t="str">
-        <v>Mozilla/5.0 (iPhone; CPU iPhone OS 18_2 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/18.2 Mobile/15E148 Safari/604.1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>survey-2025-03-23T16-18-21-921Z-RADZIK.json</v>
+      <c r="J5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" t="str">
-        <v>Oba jakościowo dobre</v>
-      </c>
-      <c r="D6" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E6" t="str">
-        <v>webp</v>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
       </c>
       <c r="F6">
         <v>40</v>
@@ -590,25 +679,25 @@
       <c r="I6">
         <v>659</v>
       </c>
-      <c r="J6" t="str">
-        <v>Mozilla/5.0 (iPhone; CPU iPhone OS 18_2 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/18.2 Mobile/15E148 Safari/604.1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>survey-2025-03-23T16-18-21-921Z-RADZIK.json</v>
+      <c r="J6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" t="str">
-        <v>Oba jakościowo dobre</v>
-      </c>
-      <c r="D7" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E7" t="str">
-        <v>webp</v>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
       </c>
       <c r="F7">
         <v>40</v>
@@ -622,25 +711,25 @@
       <c r="I7">
         <v>659</v>
       </c>
-      <c r="J7" t="str">
-        <v>Mozilla/5.0 (iPhone; CPU iPhone OS 18_2 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/18.2 Mobile/15E148 Safari/604.1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>survey-2025-03-23T16-18-21-921Z-RADZIK.json</v>
+      <c r="J7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" t="str">
-        <v>Oba jakościowo dobre</v>
-      </c>
-      <c r="D8" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E8" t="str">
-        <v>webp</v>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
       </c>
       <c r="F8">
         <v>90</v>
@@ -654,25 +743,25 @@
       <c r="I8">
         <v>659</v>
       </c>
-      <c r="J8" t="str">
-        <v>Mozilla/5.0 (iPhone; CPU iPhone OS 18_2 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/18.2 Mobile/15E148 Safari/604.1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>survey-2025-03-23T16-18-21-921Z-RADZIK.json</v>
+      <c r="J8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>10</v>
       </c>
       <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9" t="str">
-        <v>Oba jakościowo dobre</v>
-      </c>
-      <c r="D9" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E9" t="str">
-        <v>webp</v>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
       </c>
       <c r="F9">
         <v>90</v>
@@ -686,25 +775,25 @@
       <c r="I9">
         <v>659</v>
       </c>
-      <c r="J9" t="str">
-        <v>Mozilla/5.0 (iPhone; CPU iPhone OS 18_2 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/18.2 Mobile/15E148 Safari/604.1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>survey-2025-03-23T16-18-21-921Z-RADZIK.json</v>
+      <c r="J9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
       </c>
       <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10" t="str">
-        <v>Oba jakościowo dobre</v>
-      </c>
-      <c r="D10" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E10" t="str">
-        <v>webp</v>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
       </c>
       <c r="F10">
         <v>90</v>
@@ -718,25 +807,25 @@
       <c r="I10">
         <v>659</v>
       </c>
-      <c r="J10" t="str">
-        <v>Mozilla/5.0 (iPhone; CPU iPhone OS 18_2 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/18.2 Mobile/15E148 Safari/604.1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>survey-2025-03-23T16-18-21-921Z-RADZIK.json</v>
+      <c r="J10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
       </c>
       <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11" t="str">
-        <v>Oba jakościowe złe</v>
-      </c>
-      <c r="D11" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E11" t="str">
-        <v>jpg</v>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
       </c>
       <c r="F11">
         <v>10</v>
@@ -750,25 +839,25 @@
       <c r="I11">
         <v>659</v>
       </c>
-      <c r="J11" t="str">
-        <v>Mozilla/5.0 (iPhone; CPU iPhone OS 18_2 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/18.2 Mobile/15E148 Safari/604.1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>survey-2025-03-23T16-18-21-921Z-RADZIK.json</v>
+      <c r="J11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>10</v>
       </c>
       <c r="B12">
         <v>10</v>
       </c>
-      <c r="C12" t="str">
-        <v>Oba jakościowe złe</v>
-      </c>
-      <c r="D12" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E12" t="str">
-        <v>jpg</v>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
       </c>
       <c r="F12">
         <v>10</v>
@@ -782,25 +871,25 @@
       <c r="I12">
         <v>659</v>
       </c>
-      <c r="J12" t="str">
-        <v>Mozilla/5.0 (iPhone; CPU iPhone OS 18_2 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/18.2 Mobile/15E148 Safari/604.1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>survey-2025-03-23T16-18-21-921Z-RADZIK.json</v>
+      <c r="J12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>10</v>
       </c>
       <c r="B13">
         <v>11</v>
       </c>
-      <c r="C13" t="str">
-        <v>Oba jakościowe złe</v>
-      </c>
-      <c r="D13" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E13" t="str">
-        <v>jpg</v>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
       </c>
       <c r="F13">
         <v>10</v>
@@ -814,25 +903,25 @@
       <c r="I13">
         <v>659</v>
       </c>
-      <c r="J13" t="str">
-        <v>Mozilla/5.0 (iPhone; CPU iPhone OS 18_2 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/18.2 Mobile/15E148 Safari/604.1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>survey-2025-03-23T16-18-21-921Z-RADZIK.json</v>
+      <c r="J13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>10</v>
       </c>
       <c r="B14">
         <v>12</v>
       </c>
-      <c r="C14" t="str">
-        <v>Obraz B</v>
-      </c>
-      <c r="D14" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E14" t="str">
-        <v>jpg</v>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
       </c>
       <c r="F14">
         <v>40</v>
@@ -846,25 +935,25 @@
       <c r="I14">
         <v>659</v>
       </c>
-      <c r="J14" t="str">
-        <v>Mozilla/5.0 (iPhone; CPU iPhone OS 18_2 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/18.2 Mobile/15E148 Safari/604.1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>survey-2025-03-23T16-18-21-921Z-RADZIK.json</v>
+      <c r="J14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>10</v>
       </c>
       <c r="B15">
         <v>13</v>
       </c>
-      <c r="C15" t="str">
-        <v>Oba jakościowe złe</v>
-      </c>
-      <c r="D15" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E15" t="str">
-        <v>jpg</v>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
       </c>
       <c r="F15">
         <v>40</v>
@@ -878,25 +967,25 @@
       <c r="I15">
         <v>659</v>
       </c>
-      <c r="J15" t="str">
-        <v>Mozilla/5.0 (iPhone; CPU iPhone OS 18_2 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/18.2 Mobile/15E148 Safari/604.1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>survey-2025-03-23T16-18-21-921Z-RADZIK.json</v>
+      <c r="J15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>10</v>
       </c>
       <c r="B16">
         <v>14</v>
       </c>
-      <c r="C16" t="str">
-        <v>Oba jakościowo dobre</v>
-      </c>
-      <c r="D16" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E16" t="str">
-        <v>jpg</v>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
       </c>
       <c r="F16">
         <v>40</v>
@@ -910,25 +999,25 @@
       <c r="I16">
         <v>659</v>
       </c>
-      <c r="J16" t="str">
-        <v>Mozilla/5.0 (iPhone; CPU iPhone OS 18_2 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/18.2 Mobile/15E148 Safari/604.1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>survey-2025-03-23T16-18-21-921Z-RADZIK.json</v>
+      <c r="J16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>10</v>
       </c>
       <c r="B17">
         <v>15</v>
       </c>
-      <c r="C17" t="str">
-        <v>Obraz A</v>
-      </c>
-      <c r="D17" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E17" t="str">
-        <v>jpg</v>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
       </c>
       <c r="F17">
         <v>90</v>
@@ -942,25 +1031,25 @@
       <c r="I17">
         <v>659</v>
       </c>
-      <c r="J17" t="str">
-        <v>Mozilla/5.0 (iPhone; CPU iPhone OS 18_2 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/18.2 Mobile/15E148 Safari/604.1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>survey-2025-03-23T16-18-21-921Z-RADZIK.json</v>
+      <c r="J17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>10</v>
       </c>
       <c r="B18">
         <v>16</v>
       </c>
-      <c r="C18" t="str">
-        <v>Oba jakościowo dobre</v>
-      </c>
-      <c r="D18" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E18" t="str">
-        <v>jpg</v>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
       </c>
       <c r="F18">
         <v>90</v>
@@ -974,25 +1063,25 @@
       <c r="I18">
         <v>659</v>
       </c>
-      <c r="J18" t="str">
-        <v>Mozilla/5.0 (iPhone; CPU iPhone OS 18_2 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/18.2 Mobile/15E148 Safari/604.1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>survey-2025-03-23T16-18-21-921Z-RADZIK.json</v>
+      <c r="J18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>10</v>
       </c>
       <c r="B19">
         <v>17</v>
       </c>
-      <c r="C19" t="str">
-        <v>Oba jakościowo dobre</v>
-      </c>
-      <c r="D19" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E19" t="str">
-        <v>jpg</v>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
       </c>
       <c r="F19">
         <v>90</v>
@@ -1006,25 +1095,25 @@
       <c r="I19">
         <v>659</v>
       </c>
-      <c r="J19" t="str">
-        <v>Mozilla/5.0 (iPhone; CPU iPhone OS 18_2 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/18.2 Mobile/15E148 Safari/604.1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>survey-2025-03-23T16-18-21-921Z-RADZIK.json</v>
+      <c r="J19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>10</v>
       </c>
       <c r="B20">
         <v>18</v>
       </c>
-      <c r="C20" t="str">
-        <v>Obraz A</v>
-      </c>
-      <c r="D20" t="str">
-        <v>webp</v>
-      </c>
-      <c r="E20" t="str">
-        <v>jpg</v>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
       </c>
       <c r="F20">
         <v>10</v>
@@ -1038,25 +1127,25 @@
       <c r="I20">
         <v>659</v>
       </c>
-      <c r="J20" t="str">
-        <v>Mozilla/5.0 (iPhone; CPU iPhone OS 18_2 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/18.2 Mobile/15E148 Safari/604.1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>survey-2025-03-23T16-18-21-921Z-RADZIK.json</v>
+      <c r="J20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>10</v>
       </c>
       <c r="B21">
         <v>19</v>
       </c>
-      <c r="C21" t="str">
-        <v>Obraz A</v>
-      </c>
-      <c r="D21" t="str">
-        <v>webp</v>
-      </c>
-      <c r="E21" t="str">
-        <v>jpg</v>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
       </c>
       <c r="F21">
         <v>10</v>
@@ -1070,25 +1159,25 @@
       <c r="I21">
         <v>659</v>
       </c>
-      <c r="J21" t="str">
-        <v>Mozilla/5.0 (iPhone; CPU iPhone OS 18_2 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/18.2 Mobile/15E148 Safari/604.1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>survey-2025-03-23T16-18-21-921Z-RADZIK.json</v>
+      <c r="J21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>10</v>
       </c>
       <c r="B22">
         <v>20</v>
       </c>
-      <c r="C22" t="str">
-        <v>Obraz A</v>
-      </c>
-      <c r="D22" t="str">
-        <v>webp</v>
-      </c>
-      <c r="E22" t="str">
-        <v>jpg</v>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
       </c>
       <c r="F22">
         <v>10</v>
@@ -1102,25 +1191,25 @@
       <c r="I22">
         <v>659</v>
       </c>
-      <c r="J22" t="str">
-        <v>Mozilla/5.0 (iPhone; CPU iPhone OS 18_2 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/18.2 Mobile/15E148 Safari/604.1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>survey-2025-03-23T16-18-21-921Z-RADZIK.json</v>
+      <c r="J22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>10</v>
       </c>
       <c r="B23">
         <v>21</v>
       </c>
-      <c r="C23" t="str">
-        <v>Oba jakościowo dobre</v>
-      </c>
-      <c r="D23" t="str">
-        <v>webp</v>
-      </c>
-      <c r="E23" t="str">
-        <v>jpg</v>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
       </c>
       <c r="F23">
         <v>40</v>
@@ -1134,25 +1223,25 @@
       <c r="I23">
         <v>659</v>
       </c>
-      <c r="J23" t="str">
-        <v>Mozilla/5.0 (iPhone; CPU iPhone OS 18_2 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/18.2 Mobile/15E148 Safari/604.1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>survey-2025-03-23T16-18-21-921Z-RADZIK.json</v>
+      <c r="J23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>10</v>
       </c>
       <c r="B24">
         <v>22</v>
       </c>
-      <c r="C24" t="str">
-        <v>Oba jakościowo dobre</v>
-      </c>
-      <c r="D24" t="str">
-        <v>webp</v>
-      </c>
-      <c r="E24" t="str">
-        <v>jpg</v>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s">
+        <v>17</v>
       </c>
       <c r="F24">
         <v>40</v>
@@ -1166,25 +1255,25 @@
       <c r="I24">
         <v>659</v>
       </c>
-      <c r="J24" t="str">
-        <v>Mozilla/5.0 (iPhone; CPU iPhone OS 18_2 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/18.2 Mobile/15E148 Safari/604.1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>survey-2025-03-23T16-18-21-921Z-RADZIK.json</v>
+      <c r="J24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>10</v>
       </c>
       <c r="B25">
         <v>23</v>
       </c>
-      <c r="C25" t="str">
-        <v>Oba jakościowo dobre</v>
-      </c>
-      <c r="D25" t="str">
-        <v>webp</v>
-      </c>
-      <c r="E25" t="str">
-        <v>jpg</v>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
       </c>
       <c r="F25">
         <v>40</v>
@@ -1198,25 +1287,25 @@
       <c r="I25">
         <v>659</v>
       </c>
-      <c r="J25" t="str">
-        <v>Mozilla/5.0 (iPhone; CPU iPhone OS 18_2 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/18.2 Mobile/15E148 Safari/604.1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>survey-2025-03-23T16-18-21-921Z-RADZIK.json</v>
+      <c r="J25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>10</v>
       </c>
       <c r="B26">
         <v>24</v>
       </c>
-      <c r="C26" t="str">
-        <v>Oba jakościowo dobre</v>
-      </c>
-      <c r="D26" t="str">
-        <v>webp</v>
-      </c>
-      <c r="E26" t="str">
-        <v>jpg</v>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" t="s">
+        <v>17</v>
       </c>
       <c r="F26">
         <v>90</v>
@@ -1230,25 +1319,25 @@
       <c r="I26">
         <v>659</v>
       </c>
-      <c r="J26" t="str">
-        <v>Mozilla/5.0 (iPhone; CPU iPhone OS 18_2 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/18.2 Mobile/15E148 Safari/604.1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>survey-2025-03-23T16-18-21-921Z-RADZIK.json</v>
+      <c r="J26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>10</v>
       </c>
       <c r="B27">
         <v>25</v>
       </c>
-      <c r="C27" t="str">
-        <v>Oba jakościowo dobre</v>
-      </c>
-      <c r="D27" t="str">
-        <v>webp</v>
-      </c>
-      <c r="E27" t="str">
-        <v>jpg</v>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s">
+        <v>17</v>
       </c>
       <c r="F27">
         <v>90</v>
@@ -1262,25 +1351,25 @@
       <c r="I27">
         <v>659</v>
       </c>
-      <c r="J27" t="str">
-        <v>Mozilla/5.0 (iPhone; CPU iPhone OS 18_2 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/18.2 Mobile/15E148 Safari/604.1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>survey-2025-03-23T16-18-21-921Z-RADZIK.json</v>
+      <c r="J27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>10</v>
       </c>
       <c r="B28">
         <v>26</v>
       </c>
-      <c r="C28" t="str">
-        <v>Oba jakościowo dobre</v>
-      </c>
-      <c r="D28" t="str">
-        <v>webp</v>
-      </c>
-      <c r="E28" t="str">
-        <v>jpg</v>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" t="s">
+        <v>17</v>
       </c>
       <c r="F28">
         <v>90</v>
@@ -1294,25 +1383,25 @@
       <c r="I28">
         <v>659</v>
       </c>
-      <c r="J28" t="str">
-        <v>Mozilla/5.0 (iPhone; CPU iPhone OS 18_2 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/18.2 Mobile/15E148 Safari/604.1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>survey-2025-03-23T16-24-49-623Z_OLA.json</v>
+      <c r="J28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>19</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
-      <c r="C29" t="str">
-        <v>Obraz B</v>
-      </c>
-      <c r="D29" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E29" t="str">
-        <v>webp</v>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
+        <v>13</v>
       </c>
       <c r="F29">
         <v>10</v>
@@ -1326,25 +1415,25 @@
       <c r="I29">
         <v>814</v>
       </c>
-      <c r="J29" t="str">
-        <v>Mozilla/5.0 (iPhone; CPU iPhone OS 18_1 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/18.1 Mobile/22B83 Safari/604.1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>survey-2025-03-23T16-24-49-623Z_OLA.json</v>
+      <c r="J29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>19</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
-      <c r="C30" t="str">
-        <v>Obraz B</v>
-      </c>
-      <c r="D30" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E30" t="str">
-        <v>webp</v>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
+        <v>13</v>
       </c>
       <c r="F30">
         <v>10</v>
@@ -1358,25 +1447,25 @@
       <c r="I30">
         <v>814</v>
       </c>
-      <c r="J30" t="str">
-        <v>Mozilla/5.0 (iPhone; CPU iPhone OS 18_1 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/18.1 Mobile/22B83 Safari/604.1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v>survey-2025-03-23T16-24-49-623Z_OLA.json</v>
+      <c r="J30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>19</v>
       </c>
       <c r="B31">
         <v>2</v>
       </c>
-      <c r="C31" t="str">
-        <v>Obraz B</v>
-      </c>
-      <c r="D31" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E31" t="str">
-        <v>webp</v>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
+        <v>13</v>
       </c>
       <c r="F31">
         <v>10</v>
@@ -1390,25 +1479,25 @@
       <c r="I31">
         <v>814</v>
       </c>
-      <c r="J31" t="str">
-        <v>Mozilla/5.0 (iPhone; CPU iPhone OS 18_1 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/18.1 Mobile/22B83 Safari/604.1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="str">
-        <v>survey-2025-03-23T16-24-49-623Z_OLA.json</v>
+      <c r="J31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>19</v>
       </c>
       <c r="B32">
         <v>3</v>
       </c>
-      <c r="C32" t="str">
-        <v>Oba jakościowo dobre</v>
-      </c>
-      <c r="D32" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E32" t="str">
-        <v>webp</v>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
+        <v>13</v>
       </c>
       <c r="F32">
         <v>40</v>
@@ -1422,25 +1511,25 @@
       <c r="I32">
         <v>814</v>
       </c>
-      <c r="J32" t="str">
-        <v>Mozilla/5.0 (iPhone; CPU iPhone OS 18_1 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/18.1 Mobile/22B83 Safari/604.1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="str">
-        <v>survey-2025-03-23T16-24-49-623Z_OLA.json</v>
+      <c r="J32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>19</v>
       </c>
       <c r="B33">
         <v>4</v>
       </c>
-      <c r="C33" t="str">
-        <v>Oba jakościowo dobre</v>
-      </c>
-      <c r="D33" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E33" t="str">
-        <v>webp</v>
+      <c r="C33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s">
+        <v>13</v>
       </c>
       <c r="F33">
         <v>40</v>
@@ -1454,25 +1543,25 @@
       <c r="I33">
         <v>814</v>
       </c>
-      <c r="J33" t="str">
-        <v>Mozilla/5.0 (iPhone; CPU iPhone OS 18_1 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/18.1 Mobile/22B83 Safari/604.1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>survey-2025-03-23T16-24-49-623Z_OLA.json</v>
+      <c r="J33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>19</v>
       </c>
       <c r="B34">
         <v>5</v>
       </c>
-      <c r="C34" t="str">
-        <v>Oba jakościowo dobre</v>
-      </c>
-      <c r="D34" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E34" t="str">
-        <v>webp</v>
+      <c r="C34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" t="s">
+        <v>13</v>
       </c>
       <c r="F34">
         <v>40</v>
@@ -1486,25 +1575,25 @@
       <c r="I34">
         <v>814</v>
       </c>
-      <c r="J34" t="str">
-        <v>Mozilla/5.0 (iPhone; CPU iPhone OS 18_1 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/18.1 Mobile/22B83 Safari/604.1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v>survey-2025-03-23T16-24-49-623Z_OLA.json</v>
+      <c r="J34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>19</v>
       </c>
       <c r="B35">
         <v>6</v>
       </c>
-      <c r="C35" t="str">
-        <v>Oba jakościowo dobre</v>
-      </c>
-      <c r="D35" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E35" t="str">
-        <v>webp</v>
+      <c r="C35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" t="s">
+        <v>13</v>
       </c>
       <c r="F35">
         <v>90</v>
@@ -1518,25 +1607,25 @@
       <c r="I35">
         <v>814</v>
       </c>
-      <c r="J35" t="str">
-        <v>Mozilla/5.0 (iPhone; CPU iPhone OS 18_1 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/18.1 Mobile/22B83 Safari/604.1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v>survey-2025-03-23T16-24-49-623Z_OLA.json</v>
+      <c r="J35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>19</v>
       </c>
       <c r="B36">
         <v>7</v>
       </c>
-      <c r="C36" t="str">
-        <v>Oba jakościowo dobre</v>
-      </c>
-      <c r="D36" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E36" t="str">
-        <v>webp</v>
+      <c r="C36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" t="s">
+        <v>13</v>
       </c>
       <c r="F36">
         <v>90</v>
@@ -1550,25 +1639,25 @@
       <c r="I36">
         <v>814</v>
       </c>
-      <c r="J36" t="str">
-        <v>Mozilla/5.0 (iPhone; CPU iPhone OS 18_1 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/18.1 Mobile/22B83 Safari/604.1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v>survey-2025-03-23T16-24-49-623Z_OLA.json</v>
+      <c r="J36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>19</v>
       </c>
       <c r="B37">
         <v>8</v>
       </c>
-      <c r="C37" t="str">
-        <v>Oba jakościowo dobre</v>
-      </c>
-      <c r="D37" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E37" t="str">
-        <v>webp</v>
+      <c r="C37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" t="s">
+        <v>13</v>
       </c>
       <c r="F37">
         <v>90</v>
@@ -1582,25 +1671,25 @@
       <c r="I37">
         <v>814</v>
       </c>
-      <c r="J37" t="str">
-        <v>Mozilla/5.0 (iPhone; CPU iPhone OS 18_1 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/18.1 Mobile/22B83 Safari/604.1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="str">
-        <v>survey-2025-03-23T16-24-49-623Z_OLA.json</v>
+      <c r="J37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>19</v>
       </c>
       <c r="B38">
         <v>9</v>
       </c>
-      <c r="C38" t="str">
-        <v>Oba jakościowe złe</v>
-      </c>
-      <c r="D38" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E38" t="str">
-        <v>jpg</v>
+      <c r="C38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" t="s">
+        <v>17</v>
       </c>
       <c r="F38">
         <v>10</v>
@@ -1614,25 +1703,25 @@
       <c r="I38">
         <v>814</v>
       </c>
-      <c r="J38" t="str">
-        <v>Mozilla/5.0 (iPhone; CPU iPhone OS 18_1 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/18.1 Mobile/22B83 Safari/604.1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="str">
-        <v>survey-2025-03-23T16-24-49-623Z_OLA.json</v>
+      <c r="J38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>19</v>
       </c>
       <c r="B39">
         <v>10</v>
       </c>
-      <c r="C39" t="str">
-        <v>Oba jakościowe złe</v>
-      </c>
-      <c r="D39" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E39" t="str">
-        <v>jpg</v>
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" t="s">
+        <v>17</v>
       </c>
       <c r="F39">
         <v>10</v>
@@ -1646,25 +1735,25 @@
       <c r="I39">
         <v>814</v>
       </c>
-      <c r="J39" t="str">
-        <v>Mozilla/5.0 (iPhone; CPU iPhone OS 18_1 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/18.1 Mobile/22B83 Safari/604.1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="str">
-        <v>survey-2025-03-23T16-24-49-623Z_OLA.json</v>
+      <c r="J39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>19</v>
       </c>
       <c r="B40">
         <v>11</v>
       </c>
-      <c r="C40" t="str">
-        <v>Oba jakościowe złe</v>
-      </c>
-      <c r="D40" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E40" t="str">
-        <v>jpg</v>
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" t="s">
+        <v>17</v>
       </c>
       <c r="F40">
         <v>10</v>
@@ -1678,25 +1767,25 @@
       <c r="I40">
         <v>814</v>
       </c>
-      <c r="J40" t="str">
-        <v>Mozilla/5.0 (iPhone; CPU iPhone OS 18_1 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/18.1 Mobile/22B83 Safari/604.1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="str">
-        <v>survey-2025-03-23T16-24-49-623Z_OLA.json</v>
+      <c r="J40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>19</v>
       </c>
       <c r="B41">
         <v>12</v>
       </c>
-      <c r="C41" t="str">
-        <v>Oba jakościowo dobre</v>
-      </c>
-      <c r="D41" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E41" t="str">
-        <v>jpg</v>
+      <c r="C41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" t="s">
+        <v>17</v>
       </c>
       <c r="F41">
         <v>40</v>
@@ -1710,25 +1799,25 @@
       <c r="I41">
         <v>814</v>
       </c>
-      <c r="J41" t="str">
-        <v>Mozilla/5.0 (iPhone; CPU iPhone OS 18_1 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/18.1 Mobile/22B83 Safari/604.1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="str">
-        <v>survey-2025-03-23T16-24-49-623Z_OLA.json</v>
+      <c r="J41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>19</v>
       </c>
       <c r="B42">
         <v>13</v>
       </c>
-      <c r="C42" t="str">
-        <v>Oba jakościowo dobre</v>
-      </c>
-      <c r="D42" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E42" t="str">
-        <v>jpg</v>
+      <c r="C42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" t="s">
+        <v>17</v>
       </c>
       <c r="F42">
         <v>40</v>
@@ -1742,25 +1831,25 @@
       <c r="I42">
         <v>814</v>
       </c>
-      <c r="J42" t="str">
-        <v>Mozilla/5.0 (iPhone; CPU iPhone OS 18_1 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/18.1 Mobile/22B83 Safari/604.1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="str">
-        <v>survey-2025-03-23T16-24-49-623Z_OLA.json</v>
+      <c r="J42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>19</v>
       </c>
       <c r="B43">
         <v>14</v>
       </c>
-      <c r="C43" t="str">
-        <v>Oba jakościowo dobre</v>
-      </c>
-      <c r="D43" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E43" t="str">
-        <v>jpg</v>
+      <c r="C43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" t="s">
+        <v>17</v>
       </c>
       <c r="F43">
         <v>40</v>
@@ -1774,25 +1863,25 @@
       <c r="I43">
         <v>814</v>
       </c>
-      <c r="J43" t="str">
-        <v>Mozilla/5.0 (iPhone; CPU iPhone OS 18_1 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/18.1 Mobile/22B83 Safari/604.1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="str">
-        <v>survey-2025-03-23T16-24-49-623Z_OLA.json</v>
+      <c r="J43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>19</v>
       </c>
       <c r="B44">
         <v>15</v>
       </c>
-      <c r="C44" t="str">
-        <v>Oba jakościowo dobre</v>
-      </c>
-      <c r="D44" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E44" t="str">
-        <v>jpg</v>
+      <c r="C44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" t="s">
+        <v>17</v>
       </c>
       <c r="F44">
         <v>90</v>
@@ -1806,25 +1895,25 @@
       <c r="I44">
         <v>814</v>
       </c>
-      <c r="J44" t="str">
-        <v>Mozilla/5.0 (iPhone; CPU iPhone OS 18_1 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/18.1 Mobile/22B83 Safari/604.1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="str">
-        <v>survey-2025-03-23T16-24-49-623Z_OLA.json</v>
+      <c r="J44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>19</v>
       </c>
       <c r="B45">
         <v>16</v>
       </c>
-      <c r="C45" t="str">
-        <v>Oba jakościowo dobre</v>
-      </c>
-      <c r="D45" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E45" t="str">
-        <v>jpg</v>
+      <c r="C45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" t="s">
+        <v>17</v>
       </c>
       <c r="F45">
         <v>90</v>
@@ -1838,25 +1927,25 @@
       <c r="I45">
         <v>814</v>
       </c>
-      <c r="J45" t="str">
-        <v>Mozilla/5.0 (iPhone; CPU iPhone OS 18_1 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/18.1 Mobile/22B83 Safari/604.1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="str">
-        <v>survey-2025-03-23T16-24-49-623Z_OLA.json</v>
+      <c r="J45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>19</v>
       </c>
       <c r="B46">
         <v>17</v>
       </c>
-      <c r="C46" t="str">
-        <v>Oba jakościowo dobre</v>
-      </c>
-      <c r="D46" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E46" t="str">
-        <v>jpg</v>
+      <c r="C46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" t="s">
+        <v>17</v>
       </c>
       <c r="F46">
         <v>90</v>
@@ -1870,25 +1959,25 @@
       <c r="I46">
         <v>814</v>
       </c>
-      <c r="J46" t="str">
-        <v>Mozilla/5.0 (iPhone; CPU iPhone OS 18_1 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/18.1 Mobile/22B83 Safari/604.1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="str">
-        <v>survey-2025-03-23T16-24-49-623Z_OLA.json</v>
+      <c r="J46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>19</v>
       </c>
       <c r="B47">
         <v>18</v>
       </c>
-      <c r="C47" t="str">
-        <v>Oba jakościowe złe</v>
-      </c>
-      <c r="D47" t="str">
-        <v>webp</v>
-      </c>
-      <c r="E47" t="str">
-        <v>jpg</v>
+      <c r="C47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" t="s">
+        <v>17</v>
       </c>
       <c r="F47">
         <v>10</v>
@@ -1902,25 +1991,25 @@
       <c r="I47">
         <v>814</v>
       </c>
-      <c r="J47" t="str">
-        <v>Mozilla/5.0 (iPhone; CPU iPhone OS 18_1 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/18.1 Mobile/22B83 Safari/604.1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="str">
-        <v>survey-2025-03-23T16-24-49-623Z_OLA.json</v>
+      <c r="J47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>19</v>
       </c>
       <c r="B48">
         <v>19</v>
       </c>
-      <c r="C48" t="str">
-        <v>Obraz A</v>
-      </c>
-      <c r="D48" t="str">
-        <v>webp</v>
-      </c>
-      <c r="E48" t="str">
-        <v>jpg</v>
+      <c r="C48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" t="s">
+        <v>17</v>
       </c>
       <c r="F48">
         <v>10</v>
@@ -1934,25 +2023,25 @@
       <c r="I48">
         <v>814</v>
       </c>
-      <c r="J48" t="str">
-        <v>Mozilla/5.0 (iPhone; CPU iPhone OS 18_1 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/18.1 Mobile/22B83 Safari/604.1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="str">
-        <v>survey-2025-03-23T16-24-49-623Z_OLA.json</v>
+      <c r="J48" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>19</v>
       </c>
       <c r="B49">
         <v>20</v>
       </c>
-      <c r="C49" t="str">
-        <v>Obraz A</v>
-      </c>
-      <c r="D49" t="str">
-        <v>webp</v>
-      </c>
-      <c r="E49" t="str">
-        <v>jpg</v>
+      <c r="C49" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" t="s">
+        <v>17</v>
       </c>
       <c r="F49">
         <v>10</v>
@@ -1966,25 +2055,25 @@
       <c r="I49">
         <v>814</v>
       </c>
-      <c r="J49" t="str">
-        <v>Mozilla/5.0 (iPhone; CPU iPhone OS 18_1 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/18.1 Mobile/22B83 Safari/604.1</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="str">
-        <v>survey-2025-03-23T16-24-49-623Z_OLA.json</v>
+      <c r="J49" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>19</v>
       </c>
       <c r="B50">
         <v>21</v>
       </c>
-      <c r="C50" t="str">
-        <v>Oba jakościowo dobre</v>
-      </c>
-      <c r="D50" t="str">
-        <v>webp</v>
-      </c>
-      <c r="E50" t="str">
-        <v>jpg</v>
+      <c r="C50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" t="s">
+        <v>17</v>
       </c>
       <c r="F50">
         <v>40</v>
@@ -1998,25 +2087,25 @@
       <c r="I50">
         <v>814</v>
       </c>
-      <c r="J50" t="str">
-        <v>Mozilla/5.0 (iPhone; CPU iPhone OS 18_1 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/18.1 Mobile/22B83 Safari/604.1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="str">
-        <v>survey-2025-03-23T16-24-49-623Z_OLA.json</v>
+      <c r="J50" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>19</v>
       </c>
       <c r="B51">
         <v>22</v>
       </c>
-      <c r="C51" t="str">
-        <v>Oba jakościowo dobre</v>
-      </c>
-      <c r="D51" t="str">
-        <v>webp</v>
-      </c>
-      <c r="E51" t="str">
-        <v>jpg</v>
+      <c r="C51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" t="s">
+        <v>17</v>
       </c>
       <c r="F51">
         <v>40</v>
@@ -2030,25 +2119,25 @@
       <c r="I51">
         <v>814</v>
       </c>
-      <c r="J51" t="str">
-        <v>Mozilla/5.0 (iPhone; CPU iPhone OS 18_1 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/18.1 Mobile/22B83 Safari/604.1</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="str">
-        <v>survey-2025-03-23T16-24-49-623Z_OLA.json</v>
+      <c r="J51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>19</v>
       </c>
       <c r="B52">
         <v>23</v>
       </c>
-      <c r="C52" t="str">
-        <v>Oba jakościowo dobre</v>
-      </c>
-      <c r="D52" t="str">
-        <v>webp</v>
-      </c>
-      <c r="E52" t="str">
-        <v>jpg</v>
+      <c r="C52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" t="s">
+        <v>17</v>
       </c>
       <c r="F52">
         <v>40</v>
@@ -2062,25 +2151,25 @@
       <c r="I52">
         <v>814</v>
       </c>
-      <c r="J52" t="str">
-        <v>Mozilla/5.0 (iPhone; CPU iPhone OS 18_1 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/18.1 Mobile/22B83 Safari/604.1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="str">
-        <v>survey-2025-03-23T16-24-49-623Z_OLA.json</v>
+      <c r="J52" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>19</v>
       </c>
       <c r="B53">
         <v>24</v>
       </c>
-      <c r="C53" t="str">
-        <v>Oba jakościowo dobre</v>
-      </c>
-      <c r="D53" t="str">
-        <v>webp</v>
-      </c>
-      <c r="E53" t="str">
-        <v>jpg</v>
+      <c r="C53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" t="s">
+        <v>17</v>
       </c>
       <c r="F53">
         <v>90</v>
@@ -2094,25 +2183,25 @@
       <c r="I53">
         <v>814</v>
       </c>
-      <c r="J53" t="str">
-        <v>Mozilla/5.0 (iPhone; CPU iPhone OS 18_1 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/18.1 Mobile/22B83 Safari/604.1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="str">
-        <v>survey-2025-03-23T16-24-49-623Z_OLA.json</v>
+      <c r="J53" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>19</v>
       </c>
       <c r="B54">
         <v>25</v>
       </c>
-      <c r="C54" t="str">
-        <v>Oba jakościowo dobre</v>
-      </c>
-      <c r="D54" t="str">
-        <v>webp</v>
-      </c>
-      <c r="E54" t="str">
-        <v>jpg</v>
+      <c r="C54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" t="s">
+        <v>17</v>
       </c>
       <c r="F54">
         <v>90</v>
@@ -2126,25 +2215,25 @@
       <c r="I54">
         <v>814</v>
       </c>
-      <c r="J54" t="str">
-        <v>Mozilla/5.0 (iPhone; CPU iPhone OS 18_1 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/18.1 Mobile/22B83 Safari/604.1</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="str">
-        <v>survey-2025-03-23T16-24-49-623Z_OLA.json</v>
+      <c r="J54" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>19</v>
       </c>
       <c r="B55">
         <v>26</v>
       </c>
-      <c r="C55" t="str">
-        <v>Oba jakościowo dobre</v>
-      </c>
-      <c r="D55" t="str">
-        <v>webp</v>
-      </c>
-      <c r="E55" t="str">
-        <v>jpg</v>
+      <c r="C55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" t="s">
+        <v>17</v>
       </c>
       <c r="F55">
         <v>90</v>
@@ -2158,25 +2247,25 @@
       <c r="I55">
         <v>814</v>
       </c>
-      <c r="J55" t="str">
-        <v>Mozilla/5.0 (iPhone; CPU iPhone OS 18_1 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/18.1 Mobile/22B83 Safari/604.1</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="str">
-        <v>survey-2025-03-23T16-44-52-358Z_PATALAS.json</v>
+      <c r="J55" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>21</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
-      <c r="C56" t="str">
-        <v>Obraz B</v>
-      </c>
-      <c r="D56" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E56" t="str">
-        <v>webp</v>
+      <c r="C56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" t="s">
+        <v>13</v>
       </c>
       <c r="F56">
         <v>10</v>
@@ -2190,25 +2279,25 @@
       <c r="I56">
         <v>784</v>
       </c>
-      <c r="J56" t="str">
-        <v>Mozilla/5.0 (Linux; Android 16; K) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/134.0.6998.40 Mobile Safari/537.36</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="str">
-        <v>survey-2025-03-23T16-44-52-358Z_PATALAS.json</v>
+      <c r="J56" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>21</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
-      <c r="C57" t="str">
-        <v>Obraz B</v>
-      </c>
-      <c r="D57" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E57" t="str">
-        <v>webp</v>
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" t="s">
+        <v>13</v>
       </c>
       <c r="F57">
         <v>10</v>
@@ -2222,25 +2311,25 @@
       <c r="I57">
         <v>784</v>
       </c>
-      <c r="J57" t="str">
-        <v>Mozilla/5.0 (Linux; Android 16; K) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/134.0.6998.40 Mobile Safari/537.36</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="str">
-        <v>survey-2025-03-23T16-44-52-358Z_PATALAS.json</v>
+      <c r="J57" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>21</v>
       </c>
       <c r="B58">
         <v>2</v>
       </c>
-      <c r="C58" t="str">
-        <v>Obraz B</v>
-      </c>
-      <c r="D58" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E58" t="str">
-        <v>webp</v>
+      <c r="C58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" t="s">
+        <v>13</v>
       </c>
       <c r="F58">
         <v>10</v>
@@ -2254,25 +2343,25 @@
       <c r="I58">
         <v>784</v>
       </c>
-      <c r="J58" t="str">
-        <v>Mozilla/5.0 (Linux; Android 16; K) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/134.0.6998.40 Mobile Safari/537.36</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="str">
-        <v>survey-2025-03-23T16-44-52-358Z_PATALAS.json</v>
+      <c r="J58" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>21</v>
       </c>
       <c r="B59">
         <v>3</v>
       </c>
-      <c r="C59" t="str">
-        <v>Obraz B</v>
-      </c>
-      <c r="D59" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E59" t="str">
-        <v>webp</v>
+      <c r="C59" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" t="s">
+        <v>13</v>
       </c>
       <c r="F59">
         <v>40</v>
@@ -2286,25 +2375,25 @@
       <c r="I59">
         <v>784</v>
       </c>
-      <c r="J59" t="str">
-        <v>Mozilla/5.0 (Linux; Android 16; K) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/134.0.6998.40 Mobile Safari/537.36</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="str">
-        <v>survey-2025-03-23T16-44-52-358Z_PATALAS.json</v>
+      <c r="J59" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>21</v>
       </c>
       <c r="B60">
         <v>4</v>
       </c>
-      <c r="C60" t="str">
-        <v>Obraz B</v>
-      </c>
-      <c r="D60" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E60" t="str">
-        <v>webp</v>
+      <c r="C60" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" t="s">
+        <v>13</v>
       </c>
       <c r="F60">
         <v>40</v>
@@ -2318,25 +2407,25 @@
       <c r="I60">
         <v>784</v>
       </c>
-      <c r="J60" t="str">
-        <v>Mozilla/5.0 (Linux; Android 16; K) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/134.0.6998.40 Mobile Safari/537.36</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="str">
-        <v>survey-2025-03-23T16-44-52-358Z_PATALAS.json</v>
+      <c r="J60" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>21</v>
       </c>
       <c r="B61">
         <v>5</v>
       </c>
-      <c r="C61" t="str">
-        <v>Obraz B</v>
-      </c>
-      <c r="D61" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E61" t="str">
-        <v>webp</v>
+      <c r="C61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" t="s">
+        <v>13</v>
       </c>
       <c r="F61">
         <v>40</v>
@@ -2350,25 +2439,25 @@
       <c r="I61">
         <v>784</v>
       </c>
-      <c r="J61" t="str">
-        <v>Mozilla/5.0 (Linux; Android 16; K) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/134.0.6998.40 Mobile Safari/537.36</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="str">
-        <v>survey-2025-03-23T16-44-52-358Z_PATALAS.json</v>
+      <c r="J61" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>21</v>
       </c>
       <c r="B62">
         <v>6</v>
       </c>
-      <c r="C62" t="str">
-        <v>Obraz B</v>
-      </c>
-      <c r="D62" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E62" t="str">
-        <v>webp</v>
+      <c r="C62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" t="s">
+        <v>13</v>
       </c>
       <c r="F62">
         <v>90</v>
@@ -2382,25 +2471,25 @@
       <c r="I62">
         <v>784</v>
       </c>
-      <c r="J62" t="str">
-        <v>Mozilla/5.0 (Linux; Android 16; K) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/134.0.6998.40 Mobile Safari/537.36</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="str">
-        <v>survey-2025-03-23T16-44-52-358Z_PATALAS.json</v>
+      <c r="J62" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>21</v>
       </c>
       <c r="B63">
         <v>7</v>
       </c>
-      <c r="C63" t="str">
-        <v>Obraz B</v>
-      </c>
-      <c r="D63" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E63" t="str">
-        <v>webp</v>
+      <c r="C63" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" t="s">
+        <v>13</v>
       </c>
       <c r="F63">
         <v>90</v>
@@ -2414,25 +2503,25 @@
       <c r="I63">
         <v>784</v>
       </c>
-      <c r="J63" t="str">
-        <v>Mozilla/5.0 (Linux; Android 16; K) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/134.0.6998.40 Mobile Safari/537.36</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="str">
-        <v>survey-2025-03-23T16-44-52-358Z_PATALAS.json</v>
+      <c r="J63" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>21</v>
       </c>
       <c r="B64">
         <v>8</v>
       </c>
-      <c r="C64" t="str">
-        <v>Oba jakościowo dobre</v>
-      </c>
-      <c r="D64" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E64" t="str">
-        <v>webp</v>
+      <c r="C64" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" t="s">
+        <v>13</v>
       </c>
       <c r="F64">
         <v>90</v>
@@ -2446,25 +2535,25 @@
       <c r="I64">
         <v>784</v>
       </c>
-      <c r="J64" t="str">
-        <v>Mozilla/5.0 (Linux; Android 16; K) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/134.0.6998.40 Mobile Safari/537.36</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="str">
-        <v>survey-2025-03-23T16-44-52-358Z_PATALAS.json</v>
+      <c r="J64" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>21</v>
       </c>
       <c r="B65">
         <v>9</v>
       </c>
-      <c r="C65" t="str">
-        <v>Oba jakościowe złe</v>
-      </c>
-      <c r="D65" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E65" t="str">
-        <v>jpg</v>
+      <c r="C65" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" t="s">
+        <v>17</v>
       </c>
       <c r="F65">
         <v>10</v>
@@ -2478,25 +2567,25 @@
       <c r="I65">
         <v>784</v>
       </c>
-      <c r="J65" t="str">
-        <v>Mozilla/5.0 (Linux; Android 16; K) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/134.0.6998.40 Mobile Safari/537.36</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="str">
-        <v>survey-2025-03-23T16-44-52-358Z_PATALAS.json</v>
+      <c r="J65" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>21</v>
       </c>
       <c r="B66">
         <v>10</v>
       </c>
-      <c r="C66" t="str">
-        <v>Oba jakościowe złe</v>
-      </c>
-      <c r="D66" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E66" t="str">
-        <v>jpg</v>
+      <c r="C66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" t="s">
+        <v>17</v>
       </c>
       <c r="F66">
         <v>10</v>
@@ -2510,25 +2599,25 @@
       <c r="I66">
         <v>784</v>
       </c>
-      <c r="J66" t="str">
-        <v>Mozilla/5.0 (Linux; Android 16; K) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/134.0.6998.40 Mobile Safari/537.36</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="str">
-        <v>survey-2025-03-23T16-44-52-358Z_PATALAS.json</v>
+      <c r="J66" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>21</v>
       </c>
       <c r="B67">
         <v>11</v>
       </c>
-      <c r="C67" t="str">
-        <v>Oba jakościowo dobre</v>
-      </c>
-      <c r="D67" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E67" t="str">
-        <v>jpg</v>
+      <c r="C67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" t="s">
+        <v>17</v>
       </c>
       <c r="F67">
         <v>10</v>
@@ -2542,25 +2631,25 @@
       <c r="I67">
         <v>784</v>
       </c>
-      <c r="J67" t="str">
-        <v>Mozilla/5.0 (Linux; Android 16; K) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/134.0.6998.40 Mobile Safari/537.36</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="str">
-        <v>survey-2025-03-23T16-44-52-358Z_PATALAS.json</v>
+      <c r="J67" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>21</v>
       </c>
       <c r="B68">
         <v>12</v>
       </c>
-      <c r="C68" t="str">
-        <v>Oba jakościowo dobre</v>
-      </c>
-      <c r="D68" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E68" t="str">
-        <v>jpg</v>
+      <c r="C68" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" t="s">
+        <v>17</v>
       </c>
       <c r="F68">
         <v>40</v>
@@ -2574,25 +2663,25 @@
       <c r="I68">
         <v>784</v>
       </c>
-      <c r="J68" t="str">
-        <v>Mozilla/5.0 (Linux; Android 16; K) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/134.0.6998.40 Mobile Safari/537.36</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="str">
-        <v>survey-2025-03-23T16-44-52-358Z_PATALAS.json</v>
+      <c r="J68" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>21</v>
       </c>
       <c r="B69">
         <v>13</v>
       </c>
-      <c r="C69" t="str">
-        <v>Oba jakościowo dobre</v>
-      </c>
-      <c r="D69" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E69" t="str">
-        <v>jpg</v>
+      <c r="C69" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" t="s">
+        <v>17</v>
       </c>
       <c r="F69">
         <v>40</v>
@@ -2606,25 +2695,25 @@
       <c r="I69">
         <v>784</v>
       </c>
-      <c r="J69" t="str">
-        <v>Mozilla/5.0 (Linux; Android 16; K) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/134.0.6998.40 Mobile Safari/537.36</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="str">
-        <v>survey-2025-03-23T16-44-52-358Z_PATALAS.json</v>
+      <c r="J69" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>21</v>
       </c>
       <c r="B70">
         <v>14</v>
       </c>
-      <c r="C70" t="str">
-        <v>Oba jakościowo dobre</v>
-      </c>
-      <c r="D70" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E70" t="str">
-        <v>jpg</v>
+      <c r="C70" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" t="s">
+        <v>17</v>
       </c>
       <c r="F70">
         <v>40</v>
@@ -2638,25 +2727,25 @@
       <c r="I70">
         <v>784</v>
       </c>
-      <c r="J70" t="str">
-        <v>Mozilla/5.0 (Linux; Android 16; K) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/134.0.6998.40 Mobile Safari/537.36</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="str">
-        <v>survey-2025-03-23T16-44-52-358Z_PATALAS.json</v>
+      <c r="J70" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>21</v>
       </c>
       <c r="B71">
         <v>15</v>
       </c>
-      <c r="C71" t="str">
-        <v>Oba jakościowo dobre</v>
-      </c>
-      <c r="D71" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E71" t="str">
-        <v>jpg</v>
+      <c r="C71" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" t="s">
+        <v>17</v>
       </c>
       <c r="F71">
         <v>90</v>
@@ -2670,25 +2759,25 @@
       <c r="I71">
         <v>784</v>
       </c>
-      <c r="J71" t="str">
-        <v>Mozilla/5.0 (Linux; Android 16; K) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/134.0.6998.40 Mobile Safari/537.36</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="str">
-        <v>survey-2025-03-23T16-44-52-358Z_PATALAS.json</v>
+      <c r="J71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>21</v>
       </c>
       <c r="B72">
         <v>16</v>
       </c>
-      <c r="C72" t="str">
-        <v>Oba jakościowo dobre</v>
-      </c>
-      <c r="D72" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E72" t="str">
-        <v>jpg</v>
+      <c r="C72" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" t="s">
+        <v>17</v>
       </c>
       <c r="F72">
         <v>90</v>
@@ -2702,25 +2791,25 @@
       <c r="I72">
         <v>784</v>
       </c>
-      <c r="J72" t="str">
-        <v>Mozilla/5.0 (Linux; Android 16; K) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/134.0.6998.40 Mobile Safari/537.36</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="str">
-        <v>survey-2025-03-23T16-44-52-358Z_PATALAS.json</v>
+      <c r="J72" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>21</v>
       </c>
       <c r="B73">
         <v>17</v>
       </c>
-      <c r="C73" t="str">
-        <v>Oba jakościowo dobre</v>
-      </c>
-      <c r="D73" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E73" t="str">
-        <v>jpg</v>
+      <c r="C73" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73" t="s">
+        <v>17</v>
       </c>
       <c r="F73">
         <v>90</v>
@@ -2734,25 +2823,25 @@
       <c r="I73">
         <v>784</v>
       </c>
-      <c r="J73" t="str">
-        <v>Mozilla/5.0 (Linux; Android 16; K) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/134.0.6998.40 Mobile Safari/537.36</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="str">
-        <v>survey-2025-03-23T16-44-52-358Z_PATALAS.json</v>
+      <c r="J73" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>21</v>
       </c>
       <c r="B74">
         <v>18</v>
       </c>
-      <c r="C74" t="str">
-        <v>Obraz A</v>
-      </c>
-      <c r="D74" t="str">
-        <v>webp</v>
-      </c>
-      <c r="E74" t="str">
-        <v>jpg</v>
+      <c r="C74" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" t="s">
+        <v>17</v>
       </c>
       <c r="F74">
         <v>10</v>
@@ -2766,25 +2855,25 @@
       <c r="I74">
         <v>784</v>
       </c>
-      <c r="J74" t="str">
-        <v>Mozilla/5.0 (Linux; Android 16; K) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/134.0.6998.40 Mobile Safari/537.36</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="str">
-        <v>survey-2025-03-23T16-44-52-358Z_PATALAS.json</v>
+      <c r="J74" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>21</v>
       </c>
       <c r="B75">
         <v>19</v>
       </c>
-      <c r="C75" t="str">
-        <v>Obraz A</v>
-      </c>
-      <c r="D75" t="str">
-        <v>webp</v>
-      </c>
-      <c r="E75" t="str">
-        <v>jpg</v>
+      <c r="C75" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" t="s">
+        <v>17</v>
       </c>
       <c r="F75">
         <v>10</v>
@@ -2798,25 +2887,25 @@
       <c r="I75">
         <v>784</v>
       </c>
-      <c r="J75" t="str">
-        <v>Mozilla/5.0 (Linux; Android 16; K) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/134.0.6998.40 Mobile Safari/537.36</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="str">
-        <v>survey-2025-03-23T16-44-52-358Z_PATALAS.json</v>
+      <c r="J75" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>21</v>
       </c>
       <c r="B76">
         <v>20</v>
       </c>
-      <c r="C76" t="str">
-        <v>Obraz A</v>
-      </c>
-      <c r="D76" t="str">
-        <v>webp</v>
-      </c>
-      <c r="E76" t="str">
-        <v>jpg</v>
+      <c r="C76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D76" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" t="s">
+        <v>17</v>
       </c>
       <c r="F76">
         <v>10</v>
@@ -2830,25 +2919,25 @@
       <c r="I76">
         <v>784</v>
       </c>
-      <c r="J76" t="str">
-        <v>Mozilla/5.0 (Linux; Android 16; K) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/134.0.6998.40 Mobile Safari/537.36</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="str">
-        <v>survey-2025-03-23T16-44-52-358Z_PATALAS.json</v>
+      <c r="J76" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>21</v>
       </c>
       <c r="B77">
         <v>21</v>
       </c>
-      <c r="C77" t="str">
-        <v>Oba jakościowo dobre</v>
-      </c>
-      <c r="D77" t="str">
-        <v>webp</v>
-      </c>
-      <c r="E77" t="str">
-        <v>jpg</v>
+      <c r="C77" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" t="s">
+        <v>17</v>
       </c>
       <c r="F77">
         <v>40</v>
@@ -2862,25 +2951,25 @@
       <c r="I77">
         <v>784</v>
       </c>
-      <c r="J77" t="str">
-        <v>Mozilla/5.0 (Linux; Android 16; K) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/134.0.6998.40 Mobile Safari/537.36</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="str">
-        <v>survey-2025-03-23T16-44-52-358Z_PATALAS.json</v>
+      <c r="J77" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>21</v>
       </c>
       <c r="B78">
         <v>22</v>
       </c>
-      <c r="C78" t="str">
-        <v>Oba jakościowo dobre</v>
-      </c>
-      <c r="D78" t="str">
-        <v>webp</v>
-      </c>
-      <c r="E78" t="str">
-        <v>jpg</v>
+      <c r="C78" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" t="s">
+        <v>17</v>
       </c>
       <c r="F78">
         <v>40</v>
@@ -2894,25 +2983,25 @@
       <c r="I78">
         <v>784</v>
       </c>
-      <c r="J78" t="str">
-        <v>Mozilla/5.0 (Linux; Android 16; K) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/134.0.6998.40 Mobile Safari/537.36</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="str">
-        <v>survey-2025-03-23T16-44-52-358Z_PATALAS.json</v>
+      <c r="J78" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>21</v>
       </c>
       <c r="B79">
         <v>23</v>
       </c>
-      <c r="C79" t="str">
-        <v>Oba jakościowo dobre</v>
-      </c>
-      <c r="D79" t="str">
-        <v>webp</v>
-      </c>
-      <c r="E79" t="str">
-        <v>jpg</v>
+      <c r="C79" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" t="s">
+        <v>17</v>
       </c>
       <c r="F79">
         <v>40</v>
@@ -2926,25 +3015,25 @@
       <c r="I79">
         <v>784</v>
       </c>
-      <c r="J79" t="str">
-        <v>Mozilla/5.0 (Linux; Android 16; K) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/134.0.6998.40 Mobile Safari/537.36</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="str">
-        <v>survey-2025-03-23T16-44-52-358Z_PATALAS.json</v>
+      <c r="J79" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>21</v>
       </c>
       <c r="B80">
         <v>24</v>
       </c>
-      <c r="C80" t="str">
-        <v>Oba jakościowo dobre</v>
-      </c>
-      <c r="D80" t="str">
-        <v>webp</v>
-      </c>
-      <c r="E80" t="str">
-        <v>jpg</v>
+      <c r="C80" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" t="s">
+        <v>17</v>
       </c>
       <c r="F80">
         <v>90</v>
@@ -2958,25 +3047,25 @@
       <c r="I80">
         <v>784</v>
       </c>
-      <c r="J80" t="str">
-        <v>Mozilla/5.0 (Linux; Android 16; K) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/134.0.6998.40 Mobile Safari/537.36</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="str">
-        <v>survey-2025-03-23T16-44-52-358Z_PATALAS.json</v>
+      <c r="J80" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>21</v>
       </c>
       <c r="B81">
         <v>25</v>
       </c>
-      <c r="C81" t="str">
-        <v>Oba jakościowo dobre</v>
-      </c>
-      <c r="D81" t="str">
-        <v>webp</v>
-      </c>
-      <c r="E81" t="str">
-        <v>jpg</v>
+      <c r="C81" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" t="s">
+        <v>17</v>
       </c>
       <c r="F81">
         <v>90</v>
@@ -2990,25 +3079,25 @@
       <c r="I81">
         <v>784</v>
       </c>
-      <c r="J81" t="str">
-        <v>Mozilla/5.0 (Linux; Android 16; K) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/134.0.6998.40 Mobile Safari/537.36</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="str">
-        <v>survey-2025-03-23T16-44-52-358Z_PATALAS.json</v>
+      <c r="J81" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>21</v>
       </c>
       <c r="B82">
         <v>26</v>
       </c>
-      <c r="C82" t="str">
-        <v>Oba jakościowo dobre</v>
-      </c>
-      <c r="D82" t="str">
-        <v>webp</v>
-      </c>
-      <c r="E82" t="str">
-        <v>jpg</v>
+      <c r="C82" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" t="s">
+        <v>13</v>
+      </c>
+      <c r="E82" t="s">
+        <v>17</v>
       </c>
       <c r="F82">
         <v>90</v>
@@ -3022,25 +3111,25 @@
       <c r="I82">
         <v>784</v>
       </c>
-      <c r="J82" t="str">
-        <v>Mozilla/5.0 (Linux; Android 16; K) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/134.0.6998.40 Mobile Safari/537.36</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="str">
-        <v>survey-2025-03-23T17-00-03-516Z_mama.json</v>
+      <c r="J82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>23</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
-      <c r="C83" t="str">
-        <v>Obraz B</v>
-      </c>
-      <c r="D83" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E83" t="str">
-        <v>webp</v>
+      <c r="C83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83" t="s">
+        <v>13</v>
       </c>
       <c r="F83">
         <v>10</v>
@@ -3054,25 +3143,25 @@
       <c r="I83">
         <v>910</v>
       </c>
-      <c r="J83" t="str">
-        <v>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/129.0.0.0 Safari/537.36</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="str">
-        <v>survey-2025-03-23T17-00-03-516Z_mama.json</v>
+      <c r="J83" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>23</v>
       </c>
       <c r="B84">
         <v>1</v>
       </c>
-      <c r="C84" t="str">
-        <v>Obraz B</v>
-      </c>
-      <c r="D84" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E84" t="str">
-        <v>webp</v>
+      <c r="C84" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s">
+        <v>12</v>
+      </c>
+      <c r="E84" t="s">
+        <v>13</v>
       </c>
       <c r="F84">
         <v>10</v>
@@ -3086,25 +3175,25 @@
       <c r="I84">
         <v>910</v>
       </c>
-      <c r="J84" t="str">
-        <v>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/129.0.0.0 Safari/537.36</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="str">
-        <v>survey-2025-03-23T17-00-03-516Z_mama.json</v>
+      <c r="J84" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>23</v>
       </c>
       <c r="B85">
         <v>2</v>
       </c>
-      <c r="C85" t="str">
-        <v>Obraz B</v>
-      </c>
-      <c r="D85" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E85" t="str">
-        <v>webp</v>
+      <c r="C85" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85" t="s">
+        <v>13</v>
       </c>
       <c r="F85">
         <v>10</v>
@@ -3118,25 +3207,25 @@
       <c r="I85">
         <v>910</v>
       </c>
-      <c r="J85" t="str">
-        <v>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/129.0.0.0 Safari/537.36</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="str">
-        <v>survey-2025-03-23T17-00-03-516Z_mama.json</v>
+      <c r="J85" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>23</v>
       </c>
       <c r="B86">
         <v>3</v>
       </c>
-      <c r="C86" t="str">
-        <v>Oba jakościowo dobre</v>
-      </c>
-      <c r="D86" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E86" t="str">
-        <v>webp</v>
+      <c r="C86" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86" t="s">
+        <v>13</v>
       </c>
       <c r="F86">
         <v>40</v>
@@ -3150,25 +3239,25 @@
       <c r="I86">
         <v>910</v>
       </c>
-      <c r="J86" t="str">
-        <v>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/129.0.0.0 Safari/537.36</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="str">
-        <v>survey-2025-03-23T17-00-03-516Z_mama.json</v>
+      <c r="J86" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>23</v>
       </c>
       <c r="B87">
         <v>4</v>
       </c>
-      <c r="C87" t="str">
-        <v>Oba jakościowo dobre</v>
-      </c>
-      <c r="D87" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E87" t="str">
-        <v>webp</v>
+      <c r="C87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87" t="s">
+        <v>13</v>
       </c>
       <c r="F87">
         <v>40</v>
@@ -3182,25 +3271,25 @@
       <c r="I87">
         <v>910</v>
       </c>
-      <c r="J87" t="str">
-        <v>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/129.0.0.0 Safari/537.36</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="str">
-        <v>survey-2025-03-23T17-00-03-516Z_mama.json</v>
+      <c r="J87" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>23</v>
       </c>
       <c r="B88">
         <v>5</v>
       </c>
-      <c r="C88" t="str">
-        <v>Oba jakościowo dobre</v>
-      </c>
-      <c r="D88" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E88" t="str">
-        <v>webp</v>
+      <c r="C88" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88" t="s">
+        <v>13</v>
       </c>
       <c r="F88">
         <v>40</v>
@@ -3214,25 +3303,25 @@
       <c r="I88">
         <v>910</v>
       </c>
-      <c r="J88" t="str">
-        <v>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/129.0.0.0 Safari/537.36</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="str">
-        <v>survey-2025-03-23T17-00-03-516Z_mama.json</v>
+      <c r="J88" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>23</v>
       </c>
       <c r="B89">
         <v>6</v>
       </c>
-      <c r="C89" t="str">
-        <v>Oba jakościowo dobre</v>
-      </c>
-      <c r="D89" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E89" t="str">
-        <v>webp</v>
+      <c r="C89" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89" t="s">
+        <v>13</v>
       </c>
       <c r="F89">
         <v>90</v>
@@ -3246,25 +3335,25 @@
       <c r="I89">
         <v>910</v>
       </c>
-      <c r="J89" t="str">
-        <v>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/129.0.0.0 Safari/537.36</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="str">
-        <v>survey-2025-03-23T17-00-03-516Z_mama.json</v>
+      <c r="J89" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>23</v>
       </c>
       <c r="B90">
         <v>7</v>
       </c>
-      <c r="C90" t="str">
-        <v>Oba jakościowo dobre</v>
-      </c>
-      <c r="D90" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E90" t="str">
-        <v>webp</v>
+      <c r="C90" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" t="s">
+        <v>12</v>
+      </c>
+      <c r="E90" t="s">
+        <v>13</v>
       </c>
       <c r="F90">
         <v>90</v>
@@ -3278,25 +3367,25 @@
       <c r="I90">
         <v>910</v>
       </c>
-      <c r="J90" t="str">
-        <v>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/129.0.0.0 Safari/537.36</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="str">
-        <v>survey-2025-03-23T17-00-03-516Z_mama.json</v>
+      <c r="J90" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>23</v>
       </c>
       <c r="B91">
         <v>8</v>
       </c>
-      <c r="C91" t="str">
-        <v>Oba jakościowo dobre</v>
-      </c>
-      <c r="D91" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E91" t="str">
-        <v>webp</v>
+      <c r="C91" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91" t="s">
+        <v>12</v>
+      </c>
+      <c r="E91" t="s">
+        <v>13</v>
       </c>
       <c r="F91">
         <v>90</v>
@@ -3310,25 +3399,25 @@
       <c r="I91">
         <v>910</v>
       </c>
-      <c r="J91" t="str">
-        <v>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/129.0.0.0 Safari/537.36</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="str">
-        <v>survey-2025-03-23T17-00-03-516Z_mama.json</v>
+      <c r="J91" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>23</v>
       </c>
       <c r="B92">
         <v>9</v>
       </c>
-      <c r="C92" t="str">
-        <v>Obraz B</v>
-      </c>
-      <c r="D92" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E92" t="str">
-        <v>jpg</v>
+      <c r="C92" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" t="s">
+        <v>12</v>
+      </c>
+      <c r="E92" t="s">
+        <v>17</v>
       </c>
       <c r="F92">
         <v>10</v>
@@ -3342,25 +3431,25 @@
       <c r="I92">
         <v>910</v>
       </c>
-      <c r="J92" t="str">
-        <v>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/129.0.0.0 Safari/537.36</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="str">
-        <v>survey-2025-03-23T17-00-03-516Z_mama.json</v>
+      <c r="J92" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>23</v>
       </c>
       <c r="B93">
         <v>10</v>
       </c>
-      <c r="C93" t="str">
-        <v>Oba jakościowe złe</v>
-      </c>
-      <c r="D93" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E93" t="str">
-        <v>jpg</v>
+      <c r="C93" t="s">
+        <v>16</v>
+      </c>
+      <c r="D93" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93" t="s">
+        <v>17</v>
       </c>
       <c r="F93">
         <v>10</v>
@@ -3374,25 +3463,25 @@
       <c r="I93">
         <v>910</v>
       </c>
-      <c r="J93" t="str">
-        <v>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/129.0.0.0 Safari/537.36</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="str">
-        <v>survey-2025-03-23T17-00-03-516Z_mama.json</v>
+      <c r="J93" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>23</v>
       </c>
       <c r="B94">
         <v>11</v>
       </c>
-      <c r="C94" t="str">
-        <v>Oba jakościowe złe</v>
-      </c>
-      <c r="D94" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E94" t="str">
-        <v>jpg</v>
+      <c r="C94" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E94" t="s">
+        <v>17</v>
       </c>
       <c r="F94">
         <v>10</v>
@@ -3406,25 +3495,25 @@
       <c r="I94">
         <v>910</v>
       </c>
-      <c r="J94" t="str">
-        <v>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/129.0.0.0 Safari/537.36</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="str">
-        <v>survey-2025-03-23T17-00-03-516Z_mama.json</v>
+      <c r="J94" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>23</v>
       </c>
       <c r="B95">
         <v>12</v>
       </c>
-      <c r="C95" t="str">
-        <v>Oba jakościowo dobre</v>
-      </c>
-      <c r="D95" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E95" t="str">
-        <v>jpg</v>
+      <c r="C95" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95" t="s">
+        <v>17</v>
       </c>
       <c r="F95">
         <v>40</v>
@@ -3438,25 +3527,25 @@
       <c r="I95">
         <v>910</v>
       </c>
-      <c r="J95" t="str">
-        <v>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/129.0.0.0 Safari/537.36</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="str">
-        <v>survey-2025-03-23T17-00-03-516Z_mama.json</v>
+      <c r="J95" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>23</v>
       </c>
       <c r="B96">
         <v>13</v>
       </c>
-      <c r="C96" t="str">
-        <v>Oba jakościowo dobre</v>
-      </c>
-      <c r="D96" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E96" t="str">
-        <v>jpg</v>
+      <c r="C96" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96" t="s">
+        <v>17</v>
       </c>
       <c r="F96">
         <v>40</v>
@@ -3470,25 +3559,25 @@
       <c r="I96">
         <v>910</v>
       </c>
-      <c r="J96" t="str">
-        <v>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/129.0.0.0 Safari/537.36</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="str">
-        <v>survey-2025-03-23T17-00-03-516Z_mama.json</v>
+      <c r="J96" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>23</v>
       </c>
       <c r="B97">
         <v>14</v>
       </c>
-      <c r="C97" t="str">
-        <v>Oba jakościowo dobre</v>
-      </c>
-      <c r="D97" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E97" t="str">
-        <v>jpg</v>
+      <c r="C97" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" t="s">
+        <v>12</v>
+      </c>
+      <c r="E97" t="s">
+        <v>17</v>
       </c>
       <c r="F97">
         <v>40</v>
@@ -3502,25 +3591,25 @@
       <c r="I97">
         <v>910</v>
       </c>
-      <c r="J97" t="str">
-        <v>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/129.0.0.0 Safari/537.36</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="str">
-        <v>survey-2025-03-23T17-00-03-516Z_mama.json</v>
+      <c r="J97" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>23</v>
       </c>
       <c r="B98">
         <v>15</v>
       </c>
-      <c r="C98" t="str">
-        <v>Oba jakościowo dobre</v>
-      </c>
-      <c r="D98" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E98" t="str">
-        <v>jpg</v>
+      <c r="C98" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98" t="s">
+        <v>12</v>
+      </c>
+      <c r="E98" t="s">
+        <v>17</v>
       </c>
       <c r="F98">
         <v>90</v>
@@ -3534,25 +3623,25 @@
       <c r="I98">
         <v>910</v>
       </c>
-      <c r="J98" t="str">
-        <v>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/129.0.0.0 Safari/537.36</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="str">
-        <v>survey-2025-03-23T17-00-03-516Z_mama.json</v>
+      <c r="J98" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>23</v>
       </c>
       <c r="B99">
         <v>16</v>
       </c>
-      <c r="C99" t="str">
-        <v>Oba jakościowo dobre</v>
-      </c>
-      <c r="D99" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E99" t="str">
-        <v>jpg</v>
+      <c r="C99" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99" t="s">
+        <v>12</v>
+      </c>
+      <c r="E99" t="s">
+        <v>17</v>
       </c>
       <c r="F99">
         <v>90</v>
@@ -3566,25 +3655,25 @@
       <c r="I99">
         <v>910</v>
       </c>
-      <c r="J99" t="str">
-        <v>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/129.0.0.0 Safari/537.36</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="str">
-        <v>survey-2025-03-23T17-00-03-516Z_mama.json</v>
+      <c r="J99" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>23</v>
       </c>
       <c r="B100">
         <v>17</v>
       </c>
-      <c r="C100" t="str">
-        <v>Oba jakościowo dobre</v>
-      </c>
-      <c r="D100" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E100" t="str">
-        <v>jpg</v>
+      <c r="C100" t="s">
+        <v>15</v>
+      </c>
+      <c r="D100" t="s">
+        <v>12</v>
+      </c>
+      <c r="E100" t="s">
+        <v>17</v>
       </c>
       <c r="F100">
         <v>90</v>
@@ -3598,25 +3687,25 @@
       <c r="I100">
         <v>910</v>
       </c>
-      <c r="J100" t="str">
-        <v>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/129.0.0.0 Safari/537.36</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="str">
-        <v>survey-2025-03-23T17-00-03-516Z_mama.json</v>
+      <c r="J100" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>23</v>
       </c>
       <c r="B101">
         <v>18</v>
       </c>
-      <c r="C101" t="str">
-        <v>Oba jakościowo dobre</v>
-      </c>
-      <c r="D101" t="str">
-        <v>webp</v>
-      </c>
-      <c r="E101" t="str">
-        <v>jpg</v>
+      <c r="C101" t="s">
+        <v>15</v>
+      </c>
+      <c r="D101" t="s">
+        <v>13</v>
+      </c>
+      <c r="E101" t="s">
+        <v>17</v>
       </c>
       <c r="F101">
         <v>10</v>
@@ -3630,25 +3719,25 @@
       <c r="I101">
         <v>910</v>
       </c>
-      <c r="J101" t="str">
-        <v>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/129.0.0.0 Safari/537.36</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="str">
-        <v>survey-2025-03-23T17-00-03-516Z_mama.json</v>
+      <c r="J101" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>23</v>
       </c>
       <c r="B102">
         <v>19</v>
       </c>
-      <c r="C102" t="str">
-        <v>Obraz A</v>
-      </c>
-      <c r="D102" t="str">
-        <v>webp</v>
-      </c>
-      <c r="E102" t="str">
-        <v>jpg</v>
+      <c r="C102" t="s">
+        <v>18</v>
+      </c>
+      <c r="D102" t="s">
+        <v>13</v>
+      </c>
+      <c r="E102" t="s">
+        <v>17</v>
       </c>
       <c r="F102">
         <v>10</v>
@@ -3662,25 +3751,25 @@
       <c r="I102">
         <v>910</v>
       </c>
-      <c r="J102" t="str">
-        <v>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/129.0.0.0 Safari/537.36</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="str">
-        <v>survey-2025-03-23T17-00-03-516Z_mama.json</v>
+      <c r="J102" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>23</v>
       </c>
       <c r="B103">
         <v>20</v>
       </c>
-      <c r="C103" t="str">
-        <v>Oba jakościowo dobre</v>
-      </c>
-      <c r="D103" t="str">
-        <v>webp</v>
-      </c>
-      <c r="E103" t="str">
-        <v>jpg</v>
+      <c r="C103" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103" t="s">
+        <v>13</v>
+      </c>
+      <c r="E103" t="s">
+        <v>17</v>
       </c>
       <c r="F103">
         <v>10</v>
@@ -3694,25 +3783,25 @@
       <c r="I103">
         <v>910</v>
       </c>
-      <c r="J103" t="str">
-        <v>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/129.0.0.0 Safari/537.36</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="str">
-        <v>survey-2025-03-23T17-00-03-516Z_mama.json</v>
+      <c r="J103" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>23</v>
       </c>
       <c r="B104">
         <v>21</v>
       </c>
-      <c r="C104" t="str">
-        <v>Oba jakościowo dobre</v>
-      </c>
-      <c r="D104" t="str">
-        <v>webp</v>
-      </c>
-      <c r="E104" t="str">
-        <v>jpg</v>
+      <c r="C104" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104" t="s">
+        <v>13</v>
+      </c>
+      <c r="E104" t="s">
+        <v>17</v>
       </c>
       <c r="F104">
         <v>40</v>
@@ -3726,25 +3815,25 @@
       <c r="I104">
         <v>910</v>
       </c>
-      <c r="J104" t="str">
-        <v>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/129.0.0.0 Safari/537.36</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="str">
-        <v>survey-2025-03-23T17-00-03-516Z_mama.json</v>
+      <c r="J104" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>23</v>
       </c>
       <c r="B105">
         <v>22</v>
       </c>
-      <c r="C105" t="str">
-        <v>Oba jakościowo dobre</v>
-      </c>
-      <c r="D105" t="str">
-        <v>webp</v>
-      </c>
-      <c r="E105" t="str">
-        <v>jpg</v>
+      <c r="C105" t="s">
+        <v>15</v>
+      </c>
+      <c r="D105" t="s">
+        <v>13</v>
+      </c>
+      <c r="E105" t="s">
+        <v>17</v>
       </c>
       <c r="F105">
         <v>40</v>
@@ -3758,25 +3847,25 @@
       <c r="I105">
         <v>910</v>
       </c>
-      <c r="J105" t="str">
-        <v>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/129.0.0.0 Safari/537.36</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="str">
-        <v>survey-2025-03-23T17-00-03-516Z_mama.json</v>
+      <c r="J105" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>23</v>
       </c>
       <c r="B106">
         <v>23</v>
       </c>
-      <c r="C106" t="str">
-        <v>Oba jakościowo dobre</v>
-      </c>
-      <c r="D106" t="str">
-        <v>webp</v>
-      </c>
-      <c r="E106" t="str">
-        <v>jpg</v>
+      <c r="C106" t="s">
+        <v>15</v>
+      </c>
+      <c r="D106" t="s">
+        <v>13</v>
+      </c>
+      <c r="E106" t="s">
+        <v>17</v>
       </c>
       <c r="F106">
         <v>40</v>
@@ -3790,25 +3879,25 @@
       <c r="I106">
         <v>910</v>
       </c>
-      <c r="J106" t="str">
-        <v>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/129.0.0.0 Safari/537.36</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="str">
-        <v>survey-2025-03-23T17-00-03-516Z_mama.json</v>
+      <c r="J106" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>23</v>
       </c>
       <c r="B107">
         <v>24</v>
       </c>
-      <c r="C107" t="str">
-        <v>Oba jakościowo dobre</v>
-      </c>
-      <c r="D107" t="str">
-        <v>webp</v>
-      </c>
-      <c r="E107" t="str">
-        <v>jpg</v>
+      <c r="C107" t="s">
+        <v>15</v>
+      </c>
+      <c r="D107" t="s">
+        <v>13</v>
+      </c>
+      <c r="E107" t="s">
+        <v>17</v>
       </c>
       <c r="F107">
         <v>90</v>
@@ -3822,25 +3911,25 @@
       <c r="I107">
         <v>910</v>
       </c>
-      <c r="J107" t="str">
-        <v>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/129.0.0.0 Safari/537.36</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="str">
-        <v>survey-2025-03-23T17-00-03-516Z_mama.json</v>
+      <c r="J107" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>23</v>
       </c>
       <c r="B108">
         <v>25</v>
       </c>
-      <c r="C108" t="str">
-        <v>Oba jakościowo dobre</v>
-      </c>
-      <c r="D108" t="str">
-        <v>webp</v>
-      </c>
-      <c r="E108" t="str">
-        <v>jpg</v>
+      <c r="C108" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" t="s">
+        <v>13</v>
+      </c>
+      <c r="E108" t="s">
+        <v>17</v>
       </c>
       <c r="F108">
         <v>90</v>
@@ -3854,25 +3943,25 @@
       <c r="I108">
         <v>910</v>
       </c>
-      <c r="J108" t="str">
-        <v>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/129.0.0.0 Safari/537.36</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="str">
-        <v>survey-2025-03-23T17-00-03-516Z_mama.json</v>
+      <c r="J108" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>23</v>
       </c>
       <c r="B109">
         <v>26</v>
       </c>
-      <c r="C109" t="str">
-        <v>Oba jakościowo dobre</v>
-      </c>
-      <c r="D109" t="str">
-        <v>webp</v>
-      </c>
-      <c r="E109" t="str">
-        <v>jpg</v>
+      <c r="C109" t="s">
+        <v>15</v>
+      </c>
+      <c r="D109" t="s">
+        <v>13</v>
+      </c>
+      <c r="E109" t="s">
+        <v>17</v>
       </c>
       <c r="F109">
         <v>90</v>
@@ -3886,25 +3975,25 @@
       <c r="I109">
         <v>910</v>
       </c>
-      <c r="J109" t="str">
-        <v>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/129.0.0.0 Safari/537.36</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="str">
-        <v>survey-2025-03-23T17-03-57-020Z_zibi.json</v>
+      <c r="J109" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>25</v>
       </c>
       <c r="B110">
         <v>0</v>
       </c>
-      <c r="C110" t="str">
-        <v>Oba jakościowo dobre</v>
-      </c>
-      <c r="D110" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E110" t="str">
-        <v>webp</v>
+      <c r="C110" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" t="s">
+        <v>12</v>
+      </c>
+      <c r="E110" t="s">
+        <v>13</v>
       </c>
       <c r="F110">
         <v>10</v>
@@ -3918,25 +4007,25 @@
       <c r="I110">
         <v>910</v>
       </c>
-      <c r="J110" t="str">
-        <v>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/129.0.0.0 Safari/537.36</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="str">
-        <v>survey-2025-03-23T17-03-57-020Z_zibi.json</v>
+      <c r="J110" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>25</v>
       </c>
       <c r="B111">
         <v>1</v>
       </c>
-      <c r="C111" t="str">
-        <v>Obraz B</v>
-      </c>
-      <c r="D111" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E111" t="str">
-        <v>webp</v>
+      <c r="C111" t="s">
+        <v>11</v>
+      </c>
+      <c r="D111" t="s">
+        <v>12</v>
+      </c>
+      <c r="E111" t="s">
+        <v>13</v>
       </c>
       <c r="F111">
         <v>10</v>
@@ -3950,25 +4039,25 @@
       <c r="I111">
         <v>910</v>
       </c>
-      <c r="J111" t="str">
-        <v>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/129.0.0.0 Safari/537.36</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="str">
-        <v>survey-2025-03-23T17-03-57-020Z_zibi.json</v>
+      <c r="J111" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>25</v>
       </c>
       <c r="B112">
         <v>2</v>
       </c>
-      <c r="C112" t="str">
-        <v>Obraz A</v>
-      </c>
-      <c r="D112" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E112" t="str">
-        <v>webp</v>
+      <c r="C112" t="s">
+        <v>18</v>
+      </c>
+      <c r="D112" t="s">
+        <v>12</v>
+      </c>
+      <c r="E112" t="s">
+        <v>13</v>
       </c>
       <c r="F112">
         <v>10</v>
@@ -3982,25 +4071,25 @@
       <c r="I112">
         <v>910</v>
       </c>
-      <c r="J112" t="str">
-        <v>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/129.0.0.0 Safari/537.36</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="str">
-        <v>survey-2025-03-23T17-03-57-020Z_zibi.json</v>
+      <c r="J112" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>25</v>
       </c>
       <c r="B113">
         <v>3</v>
       </c>
-      <c r="C113" t="str">
-        <v>Obraz A</v>
-      </c>
-      <c r="D113" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E113" t="str">
-        <v>webp</v>
+      <c r="C113" t="s">
+        <v>18</v>
+      </c>
+      <c r="D113" t="s">
+        <v>12</v>
+      </c>
+      <c r="E113" t="s">
+        <v>13</v>
       </c>
       <c r="F113">
         <v>40</v>
@@ -4014,25 +4103,25 @@
       <c r="I113">
         <v>910</v>
       </c>
-      <c r="J113" t="str">
-        <v>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/129.0.0.0 Safari/537.36</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="str">
-        <v>survey-2025-03-23T17-03-57-020Z_zibi.json</v>
+      <c r="J113" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>25</v>
       </c>
       <c r="B114">
         <v>4</v>
       </c>
-      <c r="C114" t="str">
-        <v>Obraz B</v>
-      </c>
-      <c r="D114" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E114" t="str">
-        <v>webp</v>
+      <c r="C114" t="s">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s">
+        <v>12</v>
+      </c>
+      <c r="E114" t="s">
+        <v>13</v>
       </c>
       <c r="F114">
         <v>40</v>
@@ -4046,25 +4135,25 @@
       <c r="I114">
         <v>910</v>
       </c>
-      <c r="J114" t="str">
-        <v>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/129.0.0.0 Safari/537.36</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="str">
-        <v>survey-2025-03-23T17-03-57-020Z_zibi.json</v>
+      <c r="J114" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>25</v>
       </c>
       <c r="B115">
         <v>5</v>
       </c>
-      <c r="C115" t="str">
-        <v>Obraz A</v>
-      </c>
-      <c r="D115" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E115" t="str">
-        <v>webp</v>
+      <c r="C115" t="s">
+        <v>18</v>
+      </c>
+      <c r="D115" t="s">
+        <v>12</v>
+      </c>
+      <c r="E115" t="s">
+        <v>13</v>
       </c>
       <c r="F115">
         <v>40</v>
@@ -4078,25 +4167,25 @@
       <c r="I115">
         <v>910</v>
       </c>
-      <c r="J115" t="str">
-        <v>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/129.0.0.0 Safari/537.36</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="str">
-        <v>survey-2025-03-23T17-03-57-020Z_zibi.json</v>
+      <c r="J115" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>25</v>
       </c>
       <c r="B116">
         <v>6</v>
       </c>
-      <c r="C116" t="str">
-        <v>Obraz A</v>
-      </c>
-      <c r="D116" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E116" t="str">
-        <v>webp</v>
+      <c r="C116" t="s">
+        <v>18</v>
+      </c>
+      <c r="D116" t="s">
+        <v>12</v>
+      </c>
+      <c r="E116" t="s">
+        <v>13</v>
       </c>
       <c r="F116">
         <v>90</v>
@@ -4110,25 +4199,25 @@
       <c r="I116">
         <v>910</v>
       </c>
-      <c r="J116" t="str">
-        <v>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/129.0.0.0 Safari/537.36</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="str">
-        <v>survey-2025-03-23T17-03-57-020Z_zibi.json</v>
+      <c r="J116" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>25</v>
       </c>
       <c r="B117">
         <v>7</v>
       </c>
-      <c r="C117" t="str">
-        <v>Obraz B</v>
-      </c>
-      <c r="D117" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E117" t="str">
-        <v>webp</v>
+      <c r="C117" t="s">
+        <v>11</v>
+      </c>
+      <c r="D117" t="s">
+        <v>12</v>
+      </c>
+      <c r="E117" t="s">
+        <v>13</v>
       </c>
       <c r="F117">
         <v>90</v>
@@ -4142,25 +4231,25 @@
       <c r="I117">
         <v>910</v>
       </c>
-      <c r="J117" t="str">
-        <v>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/129.0.0.0 Safari/537.36</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="str">
-        <v>survey-2025-03-23T17-03-57-020Z_zibi.json</v>
+      <c r="J117" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>25</v>
       </c>
       <c r="B118">
         <v>8</v>
       </c>
-      <c r="C118" t="str">
-        <v>Obraz B</v>
-      </c>
-      <c r="D118" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E118" t="str">
-        <v>webp</v>
+      <c r="C118" t="s">
+        <v>11</v>
+      </c>
+      <c r="D118" t="s">
+        <v>12</v>
+      </c>
+      <c r="E118" t="s">
+        <v>13</v>
       </c>
       <c r="F118">
         <v>90</v>
@@ -4174,25 +4263,25 @@
       <c r="I118">
         <v>910</v>
       </c>
-      <c r="J118" t="str">
-        <v>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/129.0.0.0 Safari/537.36</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="str">
-        <v>survey-2025-03-23T17-03-57-020Z_zibi.json</v>
+      <c r="J118" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>25</v>
       </c>
       <c r="B119">
         <v>9</v>
       </c>
-      <c r="C119" t="str">
-        <v>Obraz B</v>
-      </c>
-      <c r="D119" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E119" t="str">
-        <v>jpg</v>
+      <c r="C119" t="s">
+        <v>11</v>
+      </c>
+      <c r="D119" t="s">
+        <v>12</v>
+      </c>
+      <c r="E119" t="s">
+        <v>17</v>
       </c>
       <c r="F119">
         <v>10</v>
@@ -4206,25 +4295,25 @@
       <c r="I119">
         <v>910</v>
       </c>
-      <c r="J119" t="str">
-        <v>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/129.0.0.0 Safari/537.36</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="str">
-        <v>survey-2025-03-23T17-03-57-020Z_zibi.json</v>
+      <c r="J119" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>25</v>
       </c>
       <c r="B120">
         <v>10</v>
       </c>
-      <c r="C120" t="str">
-        <v>Obraz B</v>
-      </c>
-      <c r="D120" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E120" t="str">
-        <v>jpg</v>
+      <c r="C120" t="s">
+        <v>11</v>
+      </c>
+      <c r="D120" t="s">
+        <v>12</v>
+      </c>
+      <c r="E120" t="s">
+        <v>17</v>
       </c>
       <c r="F120">
         <v>10</v>
@@ -4238,25 +4327,25 @@
       <c r="I120">
         <v>910</v>
       </c>
-      <c r="J120" t="str">
-        <v>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/129.0.0.0 Safari/537.36</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="str">
-        <v>survey-2025-03-23T17-03-57-020Z_zibi.json</v>
+      <c r="J120" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>25</v>
       </c>
       <c r="B121">
         <v>11</v>
       </c>
-      <c r="C121" t="str">
-        <v>Obraz A</v>
-      </c>
-      <c r="D121" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E121" t="str">
-        <v>jpg</v>
+      <c r="C121" t="s">
+        <v>18</v>
+      </c>
+      <c r="D121" t="s">
+        <v>12</v>
+      </c>
+      <c r="E121" t="s">
+        <v>17</v>
       </c>
       <c r="F121">
         <v>10</v>
@@ -4270,25 +4359,25 @@
       <c r="I121">
         <v>910</v>
       </c>
-      <c r="J121" t="str">
-        <v>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/129.0.0.0 Safari/537.36</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="str">
-        <v>survey-2025-03-23T17-03-57-020Z_zibi.json</v>
+      <c r="J121" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>25</v>
       </c>
       <c r="B122">
         <v>12</v>
       </c>
-      <c r="C122" t="str">
-        <v>Obraz A</v>
-      </c>
-      <c r="D122" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E122" t="str">
-        <v>jpg</v>
+      <c r="C122" t="s">
+        <v>18</v>
+      </c>
+      <c r="D122" t="s">
+        <v>12</v>
+      </c>
+      <c r="E122" t="s">
+        <v>17</v>
       </c>
       <c r="F122">
         <v>40</v>
@@ -4302,25 +4391,25 @@
       <c r="I122">
         <v>910</v>
       </c>
-      <c r="J122" t="str">
-        <v>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/129.0.0.0 Safari/537.36</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="str">
-        <v>survey-2025-03-23T17-03-57-020Z_zibi.json</v>
+      <c r="J122" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>25</v>
       </c>
       <c r="B123">
         <v>13</v>
       </c>
-      <c r="C123" t="str">
-        <v>Obraz B</v>
-      </c>
-      <c r="D123" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E123" t="str">
-        <v>jpg</v>
+      <c r="C123" t="s">
+        <v>11</v>
+      </c>
+      <c r="D123" t="s">
+        <v>12</v>
+      </c>
+      <c r="E123" t="s">
+        <v>17</v>
       </c>
       <c r="F123">
         <v>40</v>
@@ -4334,25 +4423,25 @@
       <c r="I123">
         <v>910</v>
       </c>
-      <c r="J123" t="str">
-        <v>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/129.0.0.0 Safari/537.36</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="str">
-        <v>survey-2025-03-23T17-03-57-020Z_zibi.json</v>
+      <c r="J123" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>25</v>
       </c>
       <c r="B124">
         <v>14</v>
       </c>
-      <c r="C124" t="str">
-        <v>Obraz B</v>
-      </c>
-      <c r="D124" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E124" t="str">
-        <v>jpg</v>
+      <c r="C124" t="s">
+        <v>11</v>
+      </c>
+      <c r="D124" t="s">
+        <v>12</v>
+      </c>
+      <c r="E124" t="s">
+        <v>17</v>
       </c>
       <c r="F124">
         <v>40</v>
@@ -4366,25 +4455,25 @@
       <c r="I124">
         <v>910</v>
       </c>
-      <c r="J124" t="str">
-        <v>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/129.0.0.0 Safari/537.36</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="str">
-        <v>survey-2025-03-23T17-03-57-020Z_zibi.json</v>
+      <c r="J124" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>25</v>
       </c>
       <c r="B125">
         <v>15</v>
       </c>
-      <c r="C125" t="str">
-        <v>Obraz B</v>
-      </c>
-      <c r="D125" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E125" t="str">
-        <v>jpg</v>
+      <c r="C125" t="s">
+        <v>11</v>
+      </c>
+      <c r="D125" t="s">
+        <v>12</v>
+      </c>
+      <c r="E125" t="s">
+        <v>17</v>
       </c>
       <c r="F125">
         <v>90</v>
@@ -4398,25 +4487,25 @@
       <c r="I125">
         <v>910</v>
       </c>
-      <c r="J125" t="str">
-        <v>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/129.0.0.0 Safari/537.36</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="str">
-        <v>survey-2025-03-23T17-03-57-020Z_zibi.json</v>
+      <c r="J125" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>25</v>
       </c>
       <c r="B126">
         <v>16</v>
       </c>
-      <c r="C126" t="str">
-        <v>Obraz B</v>
-      </c>
-      <c r="D126" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E126" t="str">
-        <v>jpg</v>
+      <c r="C126" t="s">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s">
+        <v>12</v>
+      </c>
+      <c r="E126" t="s">
+        <v>17</v>
       </c>
       <c r="F126">
         <v>90</v>
@@ -4430,25 +4519,25 @@
       <c r="I126">
         <v>910</v>
       </c>
-      <c r="J126" t="str">
-        <v>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/129.0.0.0 Safari/537.36</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="str">
-        <v>survey-2025-03-23T17-03-57-020Z_zibi.json</v>
+      <c r="J126" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>25</v>
       </c>
       <c r="B127">
         <v>17</v>
       </c>
-      <c r="C127" t="str">
-        <v>Obraz B</v>
-      </c>
-      <c r="D127" t="str">
-        <v>avif</v>
-      </c>
-      <c r="E127" t="str">
-        <v>jpg</v>
+      <c r="C127" t="s">
+        <v>11</v>
+      </c>
+      <c r="D127" t="s">
+        <v>12</v>
+      </c>
+      <c r="E127" t="s">
+        <v>17</v>
       </c>
       <c r="F127">
         <v>90</v>
@@ -4462,25 +4551,25 @@
       <c r="I127">
         <v>910</v>
       </c>
-      <c r="J127" t="str">
-        <v>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/129.0.0.0 Safari/537.36</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="str">
-        <v>survey-2025-03-23T17-03-57-020Z_zibi.json</v>
+      <c r="J127" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>25</v>
       </c>
       <c r="B128">
         <v>18</v>
       </c>
-      <c r="C128" t="str">
-        <v>Obraz A</v>
-      </c>
-      <c r="D128" t="str">
-        <v>webp</v>
-      </c>
-      <c r="E128" t="str">
-        <v>jpg</v>
+      <c r="C128" t="s">
+        <v>18</v>
+      </c>
+      <c r="D128" t="s">
+        <v>13</v>
+      </c>
+      <c r="E128" t="s">
+        <v>17</v>
       </c>
       <c r="F128">
         <v>10</v>
@@ -4494,25 +4583,25 @@
       <c r="I128">
         <v>910</v>
       </c>
-      <c r="J128" t="str">
-        <v>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/129.0.0.0 Safari/537.36</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="str">
-        <v>survey-2025-03-23T17-03-57-020Z_zibi.json</v>
+      <c r="J128" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>25</v>
       </c>
       <c r="B129">
         <v>19</v>
       </c>
-      <c r="C129" t="str">
-        <v>Obraz B</v>
-      </c>
-      <c r="D129" t="str">
-        <v>webp</v>
-      </c>
-      <c r="E129" t="str">
-        <v>jpg</v>
+      <c r="C129" t="s">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s">
+        <v>13</v>
+      </c>
+      <c r="E129" t="s">
+        <v>17</v>
       </c>
       <c r="F129">
         <v>10</v>
@@ -4526,25 +4615,25 @@
       <c r="I129">
         <v>910</v>
       </c>
-      <c r="J129" t="str">
-        <v>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/129.0.0.0 Safari/537.36</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="str">
-        <v>survey-2025-03-23T17-03-57-020Z_zibi.json</v>
+      <c r="J129" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>25</v>
       </c>
       <c r="B130">
         <v>20</v>
       </c>
-      <c r="C130" t="str">
-        <v>Obraz B</v>
-      </c>
-      <c r="D130" t="str">
-        <v>webp</v>
-      </c>
-      <c r="E130" t="str">
-        <v>jpg</v>
+      <c r="C130" t="s">
+        <v>11</v>
+      </c>
+      <c r="D130" t="s">
+        <v>13</v>
+      </c>
+      <c r="E130" t="s">
+        <v>17</v>
       </c>
       <c r="F130">
         <v>10</v>
@@ -4558,25 +4647,25 @@
       <c r="I130">
         <v>910</v>
       </c>
-      <c r="J130" t="str">
-        <v>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/129.0.0.0 Safari/537.36</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="str">
-        <v>survey-2025-03-23T17-03-57-020Z_zibi.json</v>
+      <c r="J130" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>25</v>
       </c>
       <c r="B131">
         <v>21</v>
       </c>
-      <c r="C131" t="str">
-        <v>Obraz B</v>
-      </c>
-      <c r="D131" t="str">
-        <v>webp</v>
-      </c>
-      <c r="E131" t="str">
-        <v>jpg</v>
+      <c r="C131" t="s">
+        <v>11</v>
+      </c>
+      <c r="D131" t="s">
+        <v>13</v>
+      </c>
+      <c r="E131" t="s">
+        <v>17</v>
       </c>
       <c r="F131">
         <v>40</v>
@@ -4590,25 +4679,25 @@
       <c r="I131">
         <v>910</v>
       </c>
-      <c r="J131" t="str">
-        <v>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/129.0.0.0 Safari/537.36</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="str">
-        <v>survey-2025-03-23T17-03-57-020Z_zibi.json</v>
+      <c r="J131" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>25</v>
       </c>
       <c r="B132">
         <v>22</v>
       </c>
-      <c r="C132" t="str">
-        <v>Obraz B</v>
-      </c>
-      <c r="D132" t="str">
-        <v>webp</v>
-      </c>
-      <c r="E132" t="str">
-        <v>jpg</v>
+      <c r="C132" t="s">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s">
+        <v>13</v>
+      </c>
+      <c r="E132" t="s">
+        <v>17</v>
       </c>
       <c r="F132">
         <v>40</v>
@@ -4622,25 +4711,25 @@
       <c r="I132">
         <v>910</v>
       </c>
-      <c r="J132" t="str">
-        <v>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/129.0.0.0 Safari/537.36</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="str">
-        <v>survey-2025-03-23T17-03-57-020Z_zibi.json</v>
+      <c r="J132" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>25</v>
       </c>
       <c r="B133">
         <v>23</v>
       </c>
-      <c r="C133" t="str">
-        <v>Obraz A</v>
-      </c>
-      <c r="D133" t="str">
-        <v>webp</v>
-      </c>
-      <c r="E133" t="str">
-        <v>jpg</v>
+      <c r="C133" t="s">
+        <v>18</v>
+      </c>
+      <c r="D133" t="s">
+        <v>13</v>
+      </c>
+      <c r="E133" t="s">
+        <v>17</v>
       </c>
       <c r="F133">
         <v>40</v>
@@ -4654,25 +4743,25 @@
       <c r="I133">
         <v>910</v>
       </c>
-      <c r="J133" t="str">
-        <v>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/129.0.0.0 Safari/537.36</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="str">
-        <v>survey-2025-03-23T17-03-57-020Z_zibi.json</v>
+      <c r="J133" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>25</v>
       </c>
       <c r="B134">
         <v>24</v>
       </c>
-      <c r="C134" t="str">
-        <v>Obraz A</v>
-      </c>
-      <c r="D134" t="str">
-        <v>webp</v>
-      </c>
-      <c r="E134" t="str">
-        <v>jpg</v>
+      <c r="C134" t="s">
+        <v>18</v>
+      </c>
+      <c r="D134" t="s">
+        <v>13</v>
+      </c>
+      <c r="E134" t="s">
+        <v>17</v>
       </c>
       <c r="F134">
         <v>90</v>
@@ -4686,25 +4775,25 @@
       <c r="I134">
         <v>910</v>
       </c>
-      <c r="J134" t="str">
-        <v>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/129.0.0.0 Safari/537.36</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="str">
-        <v>survey-2025-03-23T17-03-57-020Z_zibi.json</v>
+      <c r="J134" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>25</v>
       </c>
       <c r="B135">
         <v>25</v>
       </c>
-      <c r="C135" t="str">
-        <v>Obraz B</v>
-      </c>
-      <c r="D135" t="str">
-        <v>webp</v>
-      </c>
-      <c r="E135" t="str">
-        <v>jpg</v>
+      <c r="C135" t="s">
+        <v>11</v>
+      </c>
+      <c r="D135" t="s">
+        <v>13</v>
+      </c>
+      <c r="E135" t="s">
+        <v>17</v>
       </c>
       <c r="F135">
         <v>90</v>
@@ -4718,25 +4807,25 @@
       <c r="I135">
         <v>910</v>
       </c>
-      <c r="J135" t="str">
-        <v>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/129.0.0.0 Safari/537.36</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="str">
-        <v>survey-2025-03-23T17-03-57-020Z_zibi.json</v>
+      <c r="J135" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>25</v>
       </c>
       <c r="B136">
         <v>26</v>
       </c>
-      <c r="C136" t="str">
-        <v>Obraz B</v>
-      </c>
-      <c r="D136" t="str">
-        <v>webp</v>
-      </c>
-      <c r="E136" t="str">
-        <v>jpg</v>
+      <c r="C136" t="s">
+        <v>11</v>
+      </c>
+      <c r="D136" t="s">
+        <v>13</v>
+      </c>
+      <c r="E136" t="s">
+        <v>17</v>
       </c>
       <c r="F136">
         <v>90</v>
@@ -4750,13 +4839,302 @@
       <c r="I136">
         <v>910</v>
       </c>
-      <c r="J136" t="str">
-        <v>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/129.0.0.0 Safari/537.36</v>
+      <c r="J136" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>26</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137" t="s">
+        <v>15</v>
+      </c>
+      <c r="D137" t="s">
+        <v>27</v>
+      </c>
+      <c r="E137" t="s">
+        <v>12</v>
+      </c>
+      <c r="F137">
+        <v>90</v>
+      </c>
+      <c r="G137">
+        <v>2</v>
+      </c>
+      <c r="H137">
+        <v>1720</v>
+      </c>
+      <c r="I137">
+        <v>1300</v>
+      </c>
+      <c r="J137" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>26</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="C138" t="s">
+        <v>15</v>
+      </c>
+      <c r="D138" t="s">
+        <v>27</v>
+      </c>
+      <c r="E138" t="s">
+        <v>12</v>
+      </c>
+      <c r="F138">
+        <v>90</v>
+      </c>
+      <c r="G138">
+        <v>1</v>
+      </c>
+      <c r="H138">
+        <v>1720</v>
+      </c>
+      <c r="I138">
+        <v>1300</v>
+      </c>
+      <c r="J138" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>26</v>
+      </c>
+      <c r="B139">
+        <v>2</v>
+      </c>
+      <c r="C139" t="s">
+        <v>15</v>
+      </c>
+      <c r="D139" t="s">
+        <v>27</v>
+      </c>
+      <c r="E139" t="s">
+        <v>12</v>
+      </c>
+      <c r="F139">
+        <v>90</v>
+      </c>
+      <c r="G139">
+        <v>3</v>
+      </c>
+      <c r="H139">
+        <v>1720</v>
+      </c>
+      <c r="I139">
+        <v>1300</v>
+      </c>
+      <c r="J139" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>26</v>
+      </c>
+      <c r="B140">
+        <v>3</v>
+      </c>
+      <c r="C140" t="s">
+        <v>15</v>
+      </c>
+      <c r="D140" t="s">
+        <v>27</v>
+      </c>
+      <c r="E140" t="s">
+        <v>13</v>
+      </c>
+      <c r="F140">
+        <v>90</v>
+      </c>
+      <c r="G140">
+        <v>2</v>
+      </c>
+      <c r="H140">
+        <v>1720</v>
+      </c>
+      <c r="I140">
+        <v>1300</v>
+      </c>
+      <c r="J140" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>26</v>
+      </c>
+      <c r="B141">
+        <v>4</v>
+      </c>
+      <c r="C141" t="s">
+        <v>15</v>
+      </c>
+      <c r="D141" t="s">
+        <v>27</v>
+      </c>
+      <c r="E141" t="s">
+        <v>13</v>
+      </c>
+      <c r="F141">
+        <v>90</v>
+      </c>
+      <c r="G141">
+        <v>1</v>
+      </c>
+      <c r="H141">
+        <v>1720</v>
+      </c>
+      <c r="I141">
+        <v>1300</v>
+      </c>
+      <c r="J141" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>26</v>
+      </c>
+      <c r="B142">
+        <v>5</v>
+      </c>
+      <c r="C142" t="s">
+        <v>15</v>
+      </c>
+      <c r="D142" t="s">
+        <v>27</v>
+      </c>
+      <c r="E142" t="s">
+        <v>13</v>
+      </c>
+      <c r="F142">
+        <v>90</v>
+      </c>
+      <c r="G142">
+        <v>3</v>
+      </c>
+      <c r="H142">
+        <v>1720</v>
+      </c>
+      <c r="I142">
+        <v>1300</v>
+      </c>
+      <c r="J142" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>26</v>
+      </c>
+      <c r="B143">
+        <v>6</v>
+      </c>
+      <c r="C143" t="s">
+        <v>15</v>
+      </c>
+      <c r="D143" t="s">
+        <v>27</v>
+      </c>
+      <c r="E143" t="s">
+        <v>17</v>
+      </c>
+      <c r="F143">
+        <v>90</v>
+      </c>
+      <c r="G143">
+        <v>2</v>
+      </c>
+      <c r="H143">
+        <v>1720</v>
+      </c>
+      <c r="I143">
+        <v>1300</v>
+      </c>
+      <c r="J143" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>26</v>
+      </c>
+      <c r="B144">
+        <v>7</v>
+      </c>
+      <c r="C144" t="s">
+        <v>15</v>
+      </c>
+      <c r="D144" t="s">
+        <v>27</v>
+      </c>
+      <c r="E144" t="s">
+        <v>17</v>
+      </c>
+      <c r="F144">
+        <v>90</v>
+      </c>
+      <c r="G144">
+        <v>1</v>
+      </c>
+      <c r="H144">
+        <v>1720</v>
+      </c>
+      <c r="I144">
+        <v>1300</v>
+      </c>
+      <c r="J144" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>26</v>
+      </c>
+      <c r="B145">
+        <v>8</v>
+      </c>
+      <c r="C145" t="s">
+        <v>15</v>
+      </c>
+      <c r="D145" t="s">
+        <v>27</v>
+      </c>
+      <c r="E145" t="s">
+        <v>17</v>
+      </c>
+      <c r="F145">
+        <v>90</v>
+      </c>
+      <c r="G145">
+        <v>3</v>
+      </c>
+      <c r="H145">
+        <v>1720</v>
+      </c>
+      <c r="I145">
+        <v>1300</v>
+      </c>
+      <c r="J145" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J136"/>
+    <ignoredError sqref="A1:J145" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>